--- a/expimp/material.xlsx
+++ b/expimp/material.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E469"/>
+  <dimension ref="A1:E468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,12 +466,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ca378b1d-ea6a-4eb3-a6d6-96cc54df87cf</t>
+          <t>5e817bfb-3990-499d-854a-cddf3a6aabca</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>f245740c-3b7e-4d6e-a4bd-a32f021f8d30</t>
+          <t>338ed562-9647-4724-857e-0267c4b33def</t>
         </is>
       </c>
     </row>
@@ -493,12 +493,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ca378b1d-ea6a-4eb3-a6d6-96cc54df87cf</t>
+          <t>5e817bfb-3990-499d-854a-cddf3a6aabca</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>e744e755-1d00-48f3-b203-544883efa7e1</t>
+          <t>a3d3bf0f-de5d-4c14-9ce3-f47d2dd46d42</t>
         </is>
       </c>
     </row>
@@ -520,12 +520,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ca378b1d-ea6a-4eb3-a6d6-96cc54df87cf</t>
+          <t>5e817bfb-3990-499d-854a-cddf3a6aabca</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>b0304504-a5c3-4b24-8d0c-54ebfde70413</t>
+          <t>6c6ddc5d-967a-4a90-8d60-f5dadca77ed6</t>
         </is>
       </c>
     </row>
@@ -547,12 +547,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ca378b1d-ea6a-4eb3-a6d6-96cc54df87cf</t>
+          <t>5e817bfb-3990-499d-854a-cddf3a6aabca</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>e876b746-b73b-454f-b61d-04034a98e47a</t>
+          <t>5d38a551-3c8b-4c34-b8ec-3008fd207110</t>
         </is>
       </c>
     </row>
@@ -574,12 +574,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ca378b1d-ea6a-4eb3-a6d6-96cc54df87cf</t>
+          <t>5e817bfb-3990-499d-854a-cddf3a6aabca</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5952ce0f-8a59-4e78-9ef9-0f7a4a771497</t>
+          <t>9f05c61e-74b9-4570-acf2-f3ee47343e14</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ca378b1d-ea6a-4eb3-a6d6-96cc54df87cf</t>
+          <t>5e817bfb-3990-499d-854a-cddf3a6aabca</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>40398b35-6eb7-4138-af33-5df19fe5386d</t>
+          <t>d093e81e-dbf5-4d4c-b29e-89ca73ab69c8</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ca378b1d-ea6a-4eb3-a6d6-96cc54df87cf</t>
+          <t>5e817bfb-3990-499d-854a-cddf3a6aabca</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>309d3132-0242-4226-9bd5-b56501465b2b</t>
+          <t>98a6446d-ecdf-4ad1-a97e-289885cc1d7b</t>
         </is>
       </c>
     </row>
@@ -655,12 +655,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ca378b1d-ea6a-4eb3-a6d6-96cc54df87cf</t>
+          <t>5e817bfb-3990-499d-854a-cddf3a6aabca</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>23c7a787-2396-4bea-a466-7fefdd9f9667</t>
+          <t>a7b39c3f-302b-4752-8cc8-b58d8d2fa7d9</t>
         </is>
       </c>
     </row>
@@ -682,12 +682,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ca378b1d-ea6a-4eb3-a6d6-96cc54df87cf</t>
+          <t>5e817bfb-3990-499d-854a-cddf3a6aabca</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>f8d0ca5a-49c5-462d-b618-c599d0bc091d</t>
+          <t>4d15278b-e384-4c71-827f-e2295670b0d3</t>
         </is>
       </c>
     </row>
@@ -709,12 +709,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ca378b1d-ea6a-4eb3-a6d6-96cc54df87cf</t>
+          <t>5e817bfb-3990-499d-854a-cddf3a6aabca</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>e0a43e0d-7095-44a0-8f76-d6263e2cea6a</t>
+          <t>51642eb8-fe18-4389-bd2d-ae127ff9df29</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ca378b1d-ea6a-4eb3-a6d6-96cc54df87cf</t>
+          <t>5e817bfb-3990-499d-854a-cddf3a6aabca</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09d16541-6eb4-4f8c-a8fa-a22fcaba4f3c</t>
+          <t>f10e7943-6994-4dae-9566-12de7d6dc824</t>
         </is>
       </c>
     </row>
@@ -763,12 +763,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ca378b1d-ea6a-4eb3-a6d6-96cc54df87cf</t>
+          <t>5e817bfb-3990-499d-854a-cddf3a6aabca</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>9fc3f51f-1d4a-449e-a9f0-a9dfc8fa4f02</t>
+          <t>bd3d4a44-c9f1-4513-aa15-c52cbfa333f2</t>
         </is>
       </c>
     </row>
@@ -790,12 +790,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ca378b1d-ea6a-4eb3-a6d6-96cc54df87cf</t>
+          <t>5e817bfb-3990-499d-854a-cddf3a6aabca</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7dd3e7d9-991e-4ce6-8950-336a475a41a4</t>
+          <t>9ff97d63-5413-4c3f-910a-81402a63f543</t>
         </is>
       </c>
     </row>
@@ -817,12 +817,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ced63931-b060-4fd5-bd3a-e93365fed7cd</t>
+          <t>dde23959-16f5-4dc7-af8a-62eaffee5e4d</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>935522ce-6810-422a-8f0f-55a4fd8e7740</t>
+          <t>aa1488a7-66ca-44e2-aa22-9c184eeda7dc</t>
         </is>
       </c>
     </row>
@@ -844,12 +844,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ced63931-b060-4fd5-bd3a-e93365fed7cd</t>
+          <t>dde23959-16f5-4dc7-af8a-62eaffee5e4d</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1c12998f-75f0-4195-82d9-45b68ee8ecec</t>
+          <t>5bb0ecce-f4ba-47a3-96a3-04d33eae25cd</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ced63931-b060-4fd5-bd3a-e93365fed7cd</t>
+          <t>dde23959-16f5-4dc7-af8a-62eaffee5e4d</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>df8cd8ad-f55d-4dc5-b8aa-13801f81f090</t>
+          <t>98b1d1a5-313b-498f-ac82-78068bc0c01e</t>
         </is>
       </c>
     </row>
@@ -898,12 +898,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ced63931-b060-4fd5-bd3a-e93365fed7cd</t>
+          <t>dde23959-16f5-4dc7-af8a-62eaffee5e4d</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>9af188ac-378e-4e6b-99f8-2dabd10ae620</t>
+          <t>bae1258f-44d9-447e-98ec-6c7ee92c6884</t>
         </is>
       </c>
     </row>
@@ -925,12 +925,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ced63931-b060-4fd5-bd3a-e93365fed7cd</t>
+          <t>dde23959-16f5-4dc7-af8a-62eaffee5e4d</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>52c5be39-c0c2-47e1-9555-fe618edb8585</t>
+          <t>436aff6a-a631-47c5-85e2-3f2a5b4cbb6a</t>
         </is>
       </c>
     </row>
@@ -952,12 +952,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ced63931-b060-4fd5-bd3a-e93365fed7cd</t>
+          <t>dde23959-16f5-4dc7-af8a-62eaffee5e4d</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>c49cec20-b705-47ae-a8c6-93f047b656dd</t>
+          <t>22dc662e-6a33-4858-bc32-7fb8f6e5ed32</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ced63931-b060-4fd5-bd3a-e93365fed7cd</t>
+          <t>dde23959-16f5-4dc7-af8a-62eaffee5e4d</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>807bcd98-e4cc-4437-958c-f4e0e11055fd</t>
+          <t>11c4614c-8439-463c-9d41-e05f6fa8bbb2</t>
         </is>
       </c>
     </row>
@@ -1006,12 +1006,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ced63931-b060-4fd5-bd3a-e93365fed7cd</t>
+          <t>dde23959-16f5-4dc7-af8a-62eaffee5e4d</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7de41544-8179-4197-84d5-86806550ae37</t>
+          <t>2676eca4-f4a6-4fdd-8eff-0b2bdafb2340</t>
         </is>
       </c>
     </row>
@@ -1033,12 +1033,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ced63931-b060-4fd5-bd3a-e93365fed7cd</t>
+          <t>dde23959-16f5-4dc7-af8a-62eaffee5e4d</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1c13b567-efcc-4579-b045-7d5b3657733b</t>
+          <t>3359f6a6-f1e6-4114-a18b-473cc18b4f8b</t>
         </is>
       </c>
     </row>
@@ -1060,12 +1060,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ced63931-b060-4fd5-bd3a-e93365fed7cd</t>
+          <t>dde23959-16f5-4dc7-af8a-62eaffee5e4d</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>334bfa7e-6850-4b7f-98c6-63138d3b71fd</t>
+          <t>d1f6993c-0609-4d6d-8405-7301c135acae</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ced63931-b060-4fd5-bd3a-e93365fed7cd</t>
+          <t>dde23959-16f5-4dc7-af8a-62eaffee5e4d</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>e984c1a5-cbb2-4cb7-b786-288346d81852</t>
+          <t>aaeaf749-5f04-40c9-b2f3-42e2eedd1cd1</t>
         </is>
       </c>
     </row>
@@ -1114,12 +1114,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ced63931-b060-4fd5-bd3a-e93365fed7cd</t>
+          <t>dde23959-16f5-4dc7-af8a-62eaffee5e4d</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2b8c06e3-f7b5-4265-b32d-2ae7ed584e5d</t>
+          <t>9138af6a-d7c5-435e-a1eb-b3565ac48dc4</t>
         </is>
       </c>
     </row>
@@ -1141,12 +1141,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ced63931-b060-4fd5-bd3a-e93365fed7cd</t>
+          <t>dde23959-16f5-4dc7-af8a-62eaffee5e4d</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>c86ac6e8-1869-4846-9b32-29a68cc9cb71</t>
+          <t>0fef6e66-d050-481e-8b7a-8530e5edc5f7</t>
         </is>
       </c>
     </row>
@@ -1168,12 +1168,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5f8c0e04-60de-47f7-9246-f5ef5d9296fd</t>
+          <t>c7af3a9b-04eb-437e-ac67-dceb53402693</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>f67a7ace-5bb6-4217-adb4-2fc50f3c8fe9</t>
+          <t>cbd8fb7c-9872-48e7-bf2b-927f7ea821e0</t>
         </is>
       </c>
     </row>
@@ -1195,12 +1195,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>9eaa3764-ae12-4aa2-a10b-15fd53f03365</t>
+          <t>1d3f8a3d-7873-4313-91f6-ae0b3d501354</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>109c6fd3-d3e1-4bf8-95c9-76065a3622c2</t>
+          <t>e99aeb78-3f26-45a2-a3f2-498c2e8d642a</t>
         </is>
       </c>
     </row>
@@ -1222,12 +1222,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>9eaa3764-ae12-4aa2-a10b-15fd53f03365</t>
+          <t>1d3f8a3d-7873-4313-91f6-ae0b3d501354</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>97281076-1ad8-4ac4-a11b-0f39963aa0af</t>
+          <t>153df054-b4c8-4003-8660-cce9227d72b1</t>
         </is>
       </c>
     </row>
@@ -1249,12 +1249,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>9eaa3764-ae12-4aa2-a10b-15fd53f03365</t>
+          <t>1d3f8a3d-7873-4313-91f6-ae0b3d501354</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>f7213231-db07-43bb-a8fa-45c99520a90e</t>
+          <t>038ef2b1-a5b0-4919-aca9-644eff5ba7a4</t>
         </is>
       </c>
     </row>
@@ -1276,12 +1276,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>9eaa3764-ae12-4aa2-a10b-15fd53f03365</t>
+          <t>1d3f8a3d-7873-4313-91f6-ae0b3d501354</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>58c9e232-bf4e-4b6e-b6fa-eb757d967680</t>
+          <t>3234a111-3813-4e30-a833-107060cef092</t>
         </is>
       </c>
     </row>
@@ -1303,12 +1303,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>9eaa3764-ae12-4aa2-a10b-15fd53f03365</t>
+          <t>1d3f8a3d-7873-4313-91f6-ae0b3d501354</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>8cff1e97-fbe2-40b0-9ed8-8adf50939f2e</t>
+          <t>834171be-de17-41e9-be49-5f6820a8e613</t>
         </is>
       </c>
     </row>
@@ -1330,12 +1330,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>9eaa3764-ae12-4aa2-a10b-15fd53f03365</t>
+          <t>1d3f8a3d-7873-4313-91f6-ae0b3d501354</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ca261f03-5379-48e4-83c6-46f761d1616a</t>
+          <t>1ac64a25-fdc9-416b-9244-24f0e4399bc9</t>
         </is>
       </c>
     </row>
@@ -1357,12 +1357,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3f70bae4-5271-4ca3-b7c0-633d65be583b</t>
+          <t>7cf57d86-5477-4200-8f6b-e587c3f86503</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>22531cd8-8ab6-427b-9bf9-6a42261311c7</t>
+          <t>b6a991b7-8d03-4c28-9bf7-c4fbbd1e0267</t>
         </is>
       </c>
     </row>
@@ -1384,12 +1384,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3f70bae4-5271-4ca3-b7c0-633d65be583b</t>
+          <t>7cf57d86-5477-4200-8f6b-e587c3f86503</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>c77b5554-7a46-4f83-94bd-287d55a24502</t>
+          <t>146690e6-9de3-4846-ad53-45cbeb908675</t>
         </is>
       </c>
     </row>
@@ -1411,12 +1411,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3f70bae4-5271-4ca3-b7c0-633d65be583b</t>
+          <t>7cf57d86-5477-4200-8f6b-e587c3f86503</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1c7fed1a-6596-4b04-adea-aba65bae06a3</t>
+          <t>4c9cc6b8-f08b-4307-86a1-e26eaceece3b</t>
         </is>
       </c>
     </row>
@@ -1438,12 +1438,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>07c1e06e-83a1-4169-b3f8-338a8f5e3d60</t>
+          <t>4d928358-429f-4a35-851f-69c5b9447e11</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>56da5037-93df-4826-9e32-cf6352a82ddf</t>
+          <t>d36716c5-1e66-4625-83e2-72eecdc64e0b</t>
         </is>
       </c>
     </row>
@@ -1465,12 +1465,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>07c1e06e-83a1-4169-b3f8-338a8f5e3d60</t>
+          <t>4d928358-429f-4a35-851f-69c5b9447e11</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3db3623d-39cb-4794-8bda-7bd0a9937eae</t>
+          <t>df07a1e1-e358-4a59-a900-fd2c4abe9d4a</t>
         </is>
       </c>
     </row>
@@ -1492,12 +1492,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>07c1e06e-83a1-4169-b3f8-338a8f5e3d60</t>
+          <t>4d928358-429f-4a35-851f-69c5b9447e11</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>aa316b56-abbd-4452-b137-5fb6e4896f70</t>
+          <t>144f8d2f-36e1-4f2a-96f9-95f660883faf</t>
         </is>
       </c>
     </row>
@@ -1519,12 +1519,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>07c1e06e-83a1-4169-b3f8-338a8f5e3d60</t>
+          <t>4d928358-429f-4a35-851f-69c5b9447e11</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>6b6828ec-3e08-45f1-a8c7-7d1befe58f2d</t>
+          <t>9eba98f1-4369-40f0-85dc-c915628ac904</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>07c1e06e-83a1-4169-b3f8-338a8f5e3d60</t>
+          <t>4d928358-429f-4a35-851f-69c5b9447e11</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>19a930ba-98b7-487b-b68f-02baea0a910a</t>
+          <t>66b6d9df-1808-414d-ab7a-9be29d207feb</t>
         </is>
       </c>
     </row>
@@ -1573,12 +1573,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>07c1e06e-83a1-4169-b3f8-338a8f5e3d60</t>
+          <t>4d928358-429f-4a35-851f-69c5b9447e11</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2b7c923c-c817-4cb3-909e-6d2efb234eee</t>
+          <t>7cc47e63-3033-42d8-bf51-46b4992ce49a</t>
         </is>
       </c>
     </row>
@@ -1600,12 +1600,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>07c1e06e-83a1-4169-b3f8-338a8f5e3d60</t>
+          <t>4d928358-429f-4a35-851f-69c5b9447e11</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>6871478f-dca8-462b-99aa-5569e63eaf71</t>
+          <t>3af5284f-866b-4271-a486-70956be56922</t>
         </is>
       </c>
     </row>
@@ -1627,12 +1627,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>07c1e06e-83a1-4169-b3f8-338a8f5e3d60</t>
+          <t>4d928358-429f-4a35-851f-69c5b9447e11</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>f4f0de4a-141d-48c7-85b3-70ddd44d7cd8</t>
+          <t>7c5c5199-ea7b-479a-989c-7344c82565df</t>
         </is>
       </c>
     </row>
@@ -1654,12 +1654,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>abe5f8e8-ac63-412e-98f2-60dc5e672287</t>
+          <t>44beefa3-4193-4fc1-89b7-3b0a59e14375</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>fc1b6d66-93d8-41fa-9562-ab426509582e</t>
+          <t>d7675354-ab56-424d-86b2-f01acc768fc1</t>
         </is>
       </c>
     </row>
@@ -1681,12 +1681,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>abe5f8e8-ac63-412e-98f2-60dc5e672287</t>
+          <t>44beefa3-4193-4fc1-89b7-3b0a59e14375</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>8031e3f8-153c-414c-b429-29d8d384a27e</t>
+          <t>ceac4a48-dc1f-4d60-8b44-0c63d5914568</t>
         </is>
       </c>
     </row>
@@ -1708,12 +1708,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>abe5f8e8-ac63-412e-98f2-60dc5e672287</t>
+          <t>44beefa3-4193-4fc1-89b7-3b0a59e14375</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2e9d9d91-9a67-4fdb-8e0b-2e37a5b31bcf</t>
+          <t>52101b5f-a16b-4b4f-ac13-1189f1202864</t>
         </is>
       </c>
     </row>
@@ -1735,12 +1735,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>abe5f8e8-ac63-412e-98f2-60dc5e672287</t>
+          <t>44beefa3-4193-4fc1-89b7-3b0a59e14375</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>b878d0a0-efd0-48e4-9932-863a2acce393</t>
+          <t>fb9fab68-3cdc-4577-b302-d3672e023adc</t>
         </is>
       </c>
     </row>
@@ -1762,12 +1762,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>abe5f8e8-ac63-412e-98f2-60dc5e672287</t>
+          <t>44beefa3-4193-4fc1-89b7-3b0a59e14375</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>d7d82a83-ada0-4be2-a0ef-a3e01462dd31</t>
+          <t>36d87ea4-4316-48ea-9a9b-ca14fe1b65de</t>
         </is>
       </c>
     </row>
@@ -1789,12 +1789,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>abe5f8e8-ac63-412e-98f2-60dc5e672287</t>
+          <t>44beefa3-4193-4fc1-89b7-3b0a59e14375</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>37658a30-345c-4eac-9196-a178fc0c14ae</t>
+          <t>9e199aa6-ddee-4e52-af85-9d241ad6168b</t>
         </is>
       </c>
     </row>
@@ -1816,12 +1816,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>abe5f8e8-ac63-412e-98f2-60dc5e672287</t>
+          <t>44beefa3-4193-4fc1-89b7-3b0a59e14375</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4694b3c4-24d2-4fc7-8902-2f9c6ff00d25</t>
+          <t>0957f09b-e190-4a37-bfe6-a1785b4d5a85</t>
         </is>
       </c>
     </row>
@@ -1843,12 +1843,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>abe5f8e8-ac63-412e-98f2-60dc5e672287</t>
+          <t>44beefa3-4193-4fc1-89b7-3b0a59e14375</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1e3df93f-3ba4-4f10-aa52-ddc4884dc334</t>
+          <t>100ad690-991c-4fc0-a6e3-44194140b9f8</t>
         </is>
       </c>
     </row>
@@ -1870,12 +1870,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>abe5f8e8-ac63-412e-98f2-60dc5e672287</t>
+          <t>44beefa3-4193-4fc1-89b7-3b0a59e14375</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>26911bf9-9fba-4f9d-a0e9-f4355a0f2249</t>
+          <t>b7406fa9-3881-4d8e-be04-5b35293dc6e1</t>
         </is>
       </c>
     </row>
@@ -1897,12 +1897,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>7bd05d4a-553e-45bd-8748-a6c60053dc06</t>
+          <t>3e9295f5-98f9-41b6-a931-4ec53ee44c70</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>541acac1-cbd2-4b44-b26c-6f9d816dccdb</t>
+          <t>b51525c5-f676-4991-8c72-b635a2866580</t>
         </is>
       </c>
     </row>
@@ -1924,12 +1924,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>7bd05d4a-553e-45bd-8748-a6c60053dc06</t>
+          <t>3e9295f5-98f9-41b6-a931-4ec53ee44c70</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>8eb46329-57fd-4307-8750-62d52fcae369</t>
+          <t>7851a164-c78c-4cb3-ad6d-bacc31427cae</t>
         </is>
       </c>
     </row>
@@ -1951,12 +1951,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>69e9e63b-76e9-4f3f-af3a-e232d0fa25cb</t>
+          <t>be802321-028d-425f-8743-ca8a954cc0a7</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>18972fae-016d-4323-88aa-dcb08eb441ec</t>
+          <t>112193eb-044e-487f-8240-7efc16e55499</t>
         </is>
       </c>
     </row>
@@ -1978,12 +1978,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>5979050f-3b64-4978-9d85-8bcb13614734</t>
+          <t>65f57582-b35e-4824-8f29-4b73801fac5b</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>6096d51d-4d82-4ecc-bc94-f802deb22fe3</t>
+          <t>0f759a7a-323a-4fed-86f1-c8dd219f54e8</t>
         </is>
       </c>
     </row>
@@ -2005,12 +2005,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ef721a4a-2d29-4903-8712-afd14d2e441a</t>
+          <t>435b63f3-f609-494b-8e1e-e9e671366ca1</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>12a9e719-0509-4fab-a95e-1b4d03a531f0</t>
+          <t>fcb554cd-97bf-4f42-b2af-9f6a654918f9</t>
         </is>
       </c>
     </row>
@@ -2032,12 +2032,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>6ae7bbe4-8ab1-4545-83db-38e5f84fda4f</t>
+          <t>5e7b70f0-3ddd-48fd-b3c1-e54b0cf2a05e</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>bdf514aa-8711-4c90-a17c-887a8da25004</t>
+          <t>321666d0-8e49-40ee-8262-9b83b48ea7cb</t>
         </is>
       </c>
     </row>
@@ -2059,12 +2059,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>c77470a0-f75e-49b2-81ab-55facd8b43c3</t>
+          <t>e3f4643c-c316-49f1-b26d-0b66fb28f7bb</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ffa9e6f2-9529-4f65-9a66-dba1740cb2c9</t>
+          <t>5596bc67-a5b9-4f34-baf4-9708b7e112c7</t>
         </is>
       </c>
     </row>
@@ -2086,12 +2086,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2e74842a-17c9-4b76-9559-eb653a383c38</t>
+          <t>78cc4149-6f30-4e23-909f-54827f34e8ac</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>d105fd51-77df-41a1-8b0a-ed44c8707320</t>
+          <t>01c92cec-cd03-449f-972a-227f72d26fac</t>
         </is>
       </c>
     </row>
@@ -2113,12 +2113,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2e74842a-17c9-4b76-9559-eb653a383c38</t>
+          <t>78cc4149-6f30-4e23-909f-54827f34e8ac</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>6d65522c-2c9d-43a8-9818-d17226f7b28f</t>
+          <t>a808c2b4-a30c-4c67-a8c5-8583af11305d</t>
         </is>
       </c>
     </row>
@@ -2140,12 +2140,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>6934460c-09ec-4fe8-9061-3d84b9b23c92</t>
+          <t>22938701-db62-44a9-b498-159a3a3d8943</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3dd03500-42ca-4089-aaa2-26a85f3d624f</t>
+          <t>cf38dde1-4953-4082-9d32-6e2024822cc0</t>
         </is>
       </c>
     </row>
@@ -2167,12 +2167,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>6934460c-09ec-4fe8-9061-3d84b9b23c92</t>
+          <t>22938701-db62-44a9-b498-159a3a3d8943</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>b2713625-6fc7-4ad9-943e-9d21f7b49e5a</t>
+          <t>6b2a6f0f-f618-4479-806f-072bf0781cee</t>
         </is>
       </c>
     </row>
@@ -2194,12 +2194,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1d4b50fc-f6ab-4f52-956a-8672c23a5884</t>
+          <t>89c3ae69-e0f1-4b85-891f-b74eff165f34</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4d22b6ad-49b5-4579-8475-6f57b0d0632c</t>
+          <t>3db478ea-6935-4e81-90e4-e76d39d34588</t>
         </is>
       </c>
     </row>
@@ -2221,12 +2221,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1d4b50fc-f6ab-4f52-956a-8672c23a5884</t>
+          <t>89c3ae69-e0f1-4b85-891f-b74eff165f34</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>b2459f86-c487-4962-8f58-b8928bed1079</t>
+          <t>4fa83cf5-556f-4cd0-93c4-ed4159790bb6</t>
         </is>
       </c>
     </row>
@@ -2248,12 +2248,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>d8deff83-1873-41ae-ac27-fb05d529e53f</t>
+          <t>9078c8d8-0c45-411d-ad5b-579663af9d99</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>c82bb4b8-9f9f-4f14-9b29-4430e89080a5</t>
+          <t>8f2606d4-d46c-4d25-9e28-34084bc42433</t>
         </is>
       </c>
     </row>
@@ -2275,12 +2275,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>d8deff83-1873-41ae-ac27-fb05d529e53f</t>
+          <t>9078c8d8-0c45-411d-ad5b-579663af9d99</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>73e9a242-bc57-4da7-bcb8-0f98e71da58b</t>
+          <t>d60f716e-fdd8-43e4-9a76-64589b8af98e</t>
         </is>
       </c>
     </row>
@@ -2302,12 +2302,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>d8deff83-1873-41ae-ac27-fb05d529e53f</t>
+          <t>9078c8d8-0c45-411d-ad5b-579663af9d99</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>015e5e22-dfbf-4e79-b709-b965a5fed926</t>
+          <t>7df05c8f-0bf5-44c1-bb20-0b6da7c4994c</t>
         </is>
       </c>
     </row>
@@ -2329,12 +2329,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2b0be569-af47-4981-a380-524a2c4c0c0f</t>
+          <t>6050bdfb-00e3-452d-ba54-737254c3ec6c</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>768d4ffa-470f-4272-9e32-4dace44260f2</t>
+          <t>3b51d344-7647-4ab6-a8d0-1b8a00fa012c</t>
         </is>
       </c>
     </row>
@@ -2356,12 +2356,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2b0be569-af47-4981-a380-524a2c4c0c0f</t>
+          <t>6050bdfb-00e3-452d-ba54-737254c3ec6c</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ddbf1548-3523-4b98-902e-cf873ba7253a</t>
+          <t>00df75c9-14a6-44e5-a207-2b4cb47f9408</t>
         </is>
       </c>
     </row>
@@ -2383,12 +2383,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2b0be569-af47-4981-a380-524a2c4c0c0f</t>
+          <t>6050bdfb-00e3-452d-ba54-737254c3ec6c</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>23c6a94f-a752-42c3-a6aa-48cfb0b5eb84</t>
+          <t>4180f07a-756a-4ca7-a10b-875715674c04</t>
         </is>
       </c>
     </row>
@@ -2410,12 +2410,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2b0be569-af47-4981-a380-524a2c4c0c0f</t>
+          <t>6050bdfb-00e3-452d-ba54-737254c3ec6c</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09102cd0-023e-4f58-a62d-06b23059c525</t>
+          <t>b47113c1-1d87-4588-ba55-4363dda1086f</t>
         </is>
       </c>
     </row>
@@ -2437,12 +2437,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2b0be569-af47-4981-a380-524a2c4c0c0f</t>
+          <t>6050bdfb-00e3-452d-ba54-737254c3ec6c</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>804ca432-1fa7-4a06-848e-00dc073f80db</t>
+          <t>9f5f0ca5-f419-4b3f-89e8-75d99dbb8b58</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>4dd31d6e-0330-4314-a14a-a00e183928c8</t>
+          <t>b4d3855b-5708-4559-93e3-3ac00ccfaba1</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>9328a861-c6be-4e58-a569-bc27dc7d68c0</t>
+          <t>e48d6046-94a3-4730-a561-daa3f9b008e4</t>
         </is>
       </c>
     </row>
@@ -2491,12 +2491,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>4dd31d6e-0330-4314-a14a-a00e183928c8</t>
+          <t>b4d3855b-5708-4559-93e3-3ac00ccfaba1</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>c9ec335e-fd3e-49c8-93b5-1685a0f9c017</t>
+          <t>40dd6d2d-16e7-4ea0-a3b8-14deb3a8fdbd</t>
         </is>
       </c>
     </row>
@@ -2518,12 +2518,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4dd31d6e-0330-4314-a14a-a00e183928c8</t>
+          <t>b4d3855b-5708-4559-93e3-3ac00ccfaba1</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>d6b168de-cfcf-4a58-990a-1e15b06681d6</t>
+          <t>b5301d91-b74f-4f01-ba1b-b9f6d6240d3e</t>
         </is>
       </c>
     </row>
@@ -2545,12 +2545,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>4dd31d6e-0330-4314-a14a-a00e183928c8</t>
+          <t>b4d3855b-5708-4559-93e3-3ac00ccfaba1</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>da90ada3-637c-46ab-a346-7f53f40155b7</t>
+          <t>a7f02a45-f518-4c28-a997-72f208b9388f</t>
         </is>
       </c>
     </row>
@@ -2572,12 +2572,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>163721ae-187b-46c7-8e1f-7e842315efff</t>
+          <t>793c4c8f-d790-40eb-861a-d8ec10734725</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>8b430291-dd13-4001-875a-c9ed6d2d8a05</t>
+          <t>79aba6ed-c974-46cf-abb1-3896320c4293</t>
         </is>
       </c>
     </row>
@@ -2599,12 +2599,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>163721ae-187b-46c7-8e1f-7e842315efff</t>
+          <t>793c4c8f-d790-40eb-861a-d8ec10734725</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>74e789cc-aa64-4697-8ebf-1dc423baae68</t>
+          <t>a0022166-f0e5-4b65-bec5-60b38fadd10a</t>
         </is>
       </c>
     </row>
@@ -2626,12 +2626,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>163721ae-187b-46c7-8e1f-7e842315efff</t>
+          <t>793c4c8f-d790-40eb-861a-d8ec10734725</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ca29351a-a60d-4759-a26f-28adfca4eab3</t>
+          <t>2d2036e0-2dd6-4d51-97a6-a4244ca6d8b0</t>
         </is>
       </c>
     </row>
@@ -2653,12 +2653,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>163721ae-187b-46c7-8e1f-7e842315efff</t>
+          <t>793c4c8f-d790-40eb-861a-d8ec10734725</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>e3855ec9-3a4c-43c3-a846-4c4c2104f131</t>
+          <t>b2aa57d1-061c-4a18-9cbd-8aa3f1cf9d7b</t>
         </is>
       </c>
     </row>
@@ -2680,12 +2680,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>669f4b03-f402-436b-965d-5ba5bde7bd17</t>
+          <t>321c5aff-0025-4160-9b7f-a1d668df26ce</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>936cd298-3b3b-4ce7-a592-c54371d37f79</t>
+          <t>33f7db96-bdcc-472c-9b58-313d5d86cdd2</t>
         </is>
       </c>
     </row>
@@ -2707,12 +2707,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>fc57e211-4721-477b-848b-8a349099ff7c</t>
+          <t>c2e7501e-c43c-43d3-a864-5cda39c9f26e</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>e850c422-5ad4-41a5-bbfa-185d2919a7d1</t>
+          <t>b2807ad5-d5da-4adb-9377-f086f4542a0b</t>
         </is>
       </c>
     </row>
@@ -2734,12 +2734,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>fc57e211-4721-477b-848b-8a349099ff7c</t>
+          <t>c2e7501e-c43c-43d3-a864-5cda39c9f26e</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>677fd185-1fdf-4535-b182-ed81279cb4de</t>
+          <t>e71f8de2-193d-4f9c-a20e-aa3eaaae7422</t>
         </is>
       </c>
     </row>
@@ -2761,12 +2761,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>9f5630c6-d5e0-4dbc-98f6-62eb4f1a5821</t>
+          <t>de27ab87-ce12-4010-9ce6-f8fb7f91f006</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>8ff8c2c6-fe64-43a0-9222-e8077cdcbaa7</t>
+          <t>d12f30b4-9037-4c74-ae9f-b72a97f18a45</t>
         </is>
       </c>
     </row>
@@ -2788,12 +2788,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>9f5630c6-d5e0-4dbc-98f6-62eb4f1a5821</t>
+          <t>de27ab87-ce12-4010-9ce6-f8fb7f91f006</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>c7c1bb3a-0617-4d66-b4bc-40cc40c7d5be</t>
+          <t>cf6b7e90-2ca6-4b5e-9c6a-cf1e45cceba6</t>
         </is>
       </c>
     </row>
@@ -2815,12 +2815,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2f3b45be-4123-4783-9f0c-1ff5f7661d1e</t>
+          <t>836e6c75-c5df-42b8-b463-2d306fc8a3a8</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>d09f4436-b752-4895-aa0b-03dce8a722b3</t>
+          <t>b48da6e8-40e7-4394-b792-add2b4cf35d0</t>
         </is>
       </c>
     </row>
@@ -2842,12 +2842,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2f3b45be-4123-4783-9f0c-1ff5f7661d1e</t>
+          <t>836e6c75-c5df-42b8-b463-2d306fc8a3a8</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2c5ca130-ed7d-4e33-9256-337c319d4d42</t>
+          <t>cd5d0d7c-0355-4699-b5e9-dbaea27f8bab</t>
         </is>
       </c>
     </row>
@@ -2869,12 +2869,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2f3b45be-4123-4783-9f0c-1ff5f7661d1e</t>
+          <t>836e6c75-c5df-42b8-b463-2d306fc8a3a8</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>a75fe5d3-f792-4065-a9e4-80e0ec6c07f1</t>
+          <t>98245bf1-4d63-4c64-a253-a4d08822e417</t>
         </is>
       </c>
     </row>
@@ -2896,12 +2896,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2f3b45be-4123-4783-9f0c-1ff5f7661d1e</t>
+          <t>836e6c75-c5df-42b8-b463-2d306fc8a3a8</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>80c9d741-45fa-4fe1-b211-065144fc8924</t>
+          <t>9d27aee6-829d-4258-9fb2-20399432af15</t>
         </is>
       </c>
     </row>
@@ -2923,12 +2923,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>8e203032-420f-4a88-84b3-27d8e39aebed</t>
+          <t>aaf89384-548f-4b56-92c6-f2c9c07b72a5</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>8094a217-1c48-424e-bd16-37c1c1cc258c</t>
+          <t>1132a01e-0670-482b-b44f-e2588bbc939c</t>
         </is>
       </c>
     </row>
@@ -2950,12 +2950,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>7c53baf4-c149-41ac-af79-f866bf2c3a4e</t>
+          <t>7347c037-ca99-47e0-9fed-80a638238dd2</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>576faf05-8104-41de-b3cc-41305bc07b72</t>
+          <t>e0ab59f6-24af-4915-b7cb-0bdfd357c886</t>
         </is>
       </c>
     </row>
@@ -2977,12 +2977,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>7c53baf4-c149-41ac-af79-f866bf2c3a4e</t>
+          <t>7347c037-ca99-47e0-9fed-80a638238dd2</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>bba07cc7-c670-4ab0-9de1-1d0ba508b17f</t>
+          <t>0a1bc9e4-a9aa-443e-9c2c-7f29077183e5</t>
         </is>
       </c>
     </row>
@@ -3004,12 +3004,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>7c53baf4-c149-41ac-af79-f866bf2c3a4e</t>
+          <t>7347c037-ca99-47e0-9fed-80a638238dd2</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>e3916e04-d3fd-4dc0-ae05-6cb9436cbc57</t>
+          <t>19cd5e8b-280d-44eb-8e47-6d8df43da0b4</t>
         </is>
       </c>
     </row>
@@ -3031,12 +3031,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>7c53baf4-c149-41ac-af79-f866bf2c3a4e</t>
+          <t>7347c037-ca99-47e0-9fed-80a638238dd2</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>be31ed2e-e90f-4cc7-bca3-b754da7cd8b4</t>
+          <t>b7599232-f37a-45a4-851b-1e026c0445a5</t>
         </is>
       </c>
     </row>
@@ -3058,12 +3058,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>7c53baf4-c149-41ac-af79-f866bf2c3a4e</t>
+          <t>7347c037-ca99-47e0-9fed-80a638238dd2</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>6985c98d-45b4-4e47-84dc-8e0d70a1b50f</t>
+          <t>845a1dea-2f43-481d-a7d2-b731a40d5583</t>
         </is>
       </c>
     </row>
@@ -3085,12 +3085,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>7c53baf4-c149-41ac-af79-f866bf2c3a4e</t>
+          <t>7347c037-ca99-47e0-9fed-80a638238dd2</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>a66b8bc6-3739-4d2d-b1b7-6dd5fae12906</t>
+          <t>666a5cc1-0227-4282-8a26-4e39ccf0765b</t>
         </is>
       </c>
     </row>
@@ -3112,12 +3112,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>f271d489-42ad-45db-9ea7-5280e1207397</t>
+          <t>869bc04c-5df9-4188-a122-ad3cf1f4a2c6</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>19e23a9b-b4f1-48ea-bbf6-acae46d059b1</t>
+          <t>2284a20d-927e-4924-9a5d-b4dcd8a301a9</t>
         </is>
       </c>
     </row>
@@ -3139,12 +3139,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>9cea4316-6be0-405e-88b0-00ad238b14b3</t>
+          <t>e050e617-0238-42b4-b0e3-2e24bc1d84ed</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>6267ac0a-3dcd-4f85-a5f8-fb41ca6686ae</t>
+          <t>f4ed7a59-7c0f-4f39-b3a9-defd6e25a0aa</t>
         </is>
       </c>
     </row>
@@ -3166,12 +3166,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>9cea4316-6be0-405e-88b0-00ad238b14b3</t>
+          <t>e050e617-0238-42b4-b0e3-2e24bc1d84ed</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>aefc586d-3fa1-422f-8d81-bd46ec574683</t>
+          <t>a0b75eec-3bd7-4a2d-acd8-eb73f6a2e466</t>
         </is>
       </c>
     </row>
@@ -3193,12 +3193,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>9cea4316-6be0-405e-88b0-00ad238b14b3</t>
+          <t>e050e617-0238-42b4-b0e3-2e24bc1d84ed</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>bddf4345-b3ff-481a-93af-8a071159c4bc</t>
+          <t>ba1c1504-f3d2-4152-a15a-9e2fcf28c1fb</t>
         </is>
       </c>
     </row>
@@ -3220,12 +3220,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>9cea4316-6be0-405e-88b0-00ad238b14b3</t>
+          <t>e050e617-0238-42b4-b0e3-2e24bc1d84ed</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>6ee178e1-bcc6-46b9-9924-9a2676e152f8</t>
+          <t>8844e11a-998a-4939-ad55-61c0cefbd2f7</t>
         </is>
       </c>
     </row>
@@ -3247,12 +3247,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>9cea4316-6be0-405e-88b0-00ad238b14b3</t>
+          <t>e050e617-0238-42b4-b0e3-2e24bc1d84ed</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>0c8191a0-a679-4991-a81f-3ad654392f49</t>
+          <t>1696a377-d92c-47cf-a0a8-9c4351cae288</t>
         </is>
       </c>
     </row>
@@ -3274,12 +3274,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>9cea4316-6be0-405e-88b0-00ad238b14b3</t>
+          <t>e050e617-0238-42b4-b0e3-2e24bc1d84ed</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>b55ac703-06a6-4532-a98c-7132f41b54ff</t>
+          <t>e8059f1e-f647-4602-b029-9e73bdd2fa30</t>
         </is>
       </c>
     </row>
@@ -3301,12 +3301,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>9cea4316-6be0-405e-88b0-00ad238b14b3</t>
+          <t>e050e617-0238-42b4-b0e3-2e24bc1d84ed</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>f499f27b-b494-47e6-baa9-f858bca896c6</t>
+          <t>44eb31b8-a47f-4166-98e2-65ae1900a6ab</t>
         </is>
       </c>
     </row>
@@ -3328,12 +3328,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>9cea4316-6be0-405e-88b0-00ad238b14b3</t>
+          <t>e050e617-0238-42b4-b0e3-2e24bc1d84ed</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>60f72ddc-9cd7-46b1-b176-925f106610d0</t>
+          <t>19745a0a-aa03-438b-99dc-34fb9e6fe398</t>
         </is>
       </c>
     </row>
@@ -3355,12 +3355,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>9cea4316-6be0-405e-88b0-00ad238b14b3</t>
+          <t>e050e617-0238-42b4-b0e3-2e24bc1d84ed</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>5bda7c64-59a4-4bcc-b4ab-d459fe2afce5</t>
+          <t>6e8646c8-1a1a-4d34-b572-449bc5051fbb</t>
         </is>
       </c>
     </row>
@@ -3382,12 +3382,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>7e993a1f-3ebe-47db-b30a-d59bf3146a50</t>
+          <t>3dd9a73a-4d4a-4f4a-aa09-f4b1c8800974</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>b0e6f714-b823-4d00-8c33-03aa2eab51f6</t>
+          <t>afc2e2d1-0706-4c04-8dd1-60e1c70fa201</t>
         </is>
       </c>
     </row>
@@ -3409,12 +3409,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>7e993a1f-3ebe-47db-b30a-d59bf3146a50</t>
+          <t>3dd9a73a-4d4a-4f4a-aa09-f4b1c8800974</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>7eda7ae9-2350-4287-952a-0d17cc750358</t>
+          <t>37ca2833-bc8a-44c9-a9f0-26e9f0b47074</t>
         </is>
       </c>
     </row>
@@ -3436,12 +3436,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>7e993a1f-3ebe-47db-b30a-d59bf3146a50</t>
+          <t>3dd9a73a-4d4a-4f4a-aa09-f4b1c8800974</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>668f2ae9-cffc-4f0f-908b-ed6e452d8022</t>
+          <t>e567d962-33d3-4007-b59d-f417275e6764</t>
         </is>
       </c>
     </row>
@@ -3463,12 +3463,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>7e993a1f-3ebe-47db-b30a-d59bf3146a50</t>
+          <t>3dd9a73a-4d4a-4f4a-aa09-f4b1c8800974</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>c6165859-4b45-4bab-b908-040ef07ce6ce</t>
+          <t>e6b556e0-8383-4271-bdd7-22464f3af5ed</t>
         </is>
       </c>
     </row>
@@ -3490,12 +3490,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>7e993a1f-3ebe-47db-b30a-d59bf3146a50</t>
+          <t>3dd9a73a-4d4a-4f4a-aa09-f4b1c8800974</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>b0e9095e-8c7f-4ef4-af42-c0bdc04fcde1</t>
+          <t>21db7a48-4102-4391-a265-0158d2229c88</t>
         </is>
       </c>
     </row>
@@ -3517,12 +3517,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>7e993a1f-3ebe-47db-b30a-d59bf3146a50</t>
+          <t>3dd9a73a-4d4a-4f4a-aa09-f4b1c8800974</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>271e5998-20c8-4e83-8ea4-d786c2014831</t>
+          <t>ab1afe00-c93e-464c-9e0a-61cdd69b3a4b</t>
         </is>
       </c>
     </row>
@@ -3544,12 +3544,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>7e993a1f-3ebe-47db-b30a-d59bf3146a50</t>
+          <t>3dd9a73a-4d4a-4f4a-aa09-f4b1c8800974</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>a9fd4d20-66bc-488f-9bc8-f65ec08a98a9</t>
+          <t>0206b2e2-12f4-4d51-806b-472187304098</t>
         </is>
       </c>
     </row>
@@ -3571,12 +3571,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>7e993a1f-3ebe-47db-b30a-d59bf3146a50</t>
+          <t>3dd9a73a-4d4a-4f4a-aa09-f4b1c8800974</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>fe2c6a59-2bb7-46a0-8f4e-16bc0e64245d</t>
+          <t>5418b86d-3381-492a-ad03-58f4792d1d5f</t>
         </is>
       </c>
     </row>
@@ -3598,12 +3598,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>69ec6084-4475-4ae7-9b1a-7d782f5b438e</t>
+          <t>775cb599-1db7-4c41-84f2-0a2fd49ada7f</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>cc2eaf50-06ba-4c72-a7c9-20471429e5ec</t>
+          <t>ef32d997-c7de-4922-a0f9-15e628b54610</t>
         </is>
       </c>
     </row>
@@ -3625,12 +3625,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>69ec6084-4475-4ae7-9b1a-7d782f5b438e</t>
+          <t>775cb599-1db7-4c41-84f2-0a2fd49ada7f</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>edb530e0-5cb7-46fc-8419-d0029f2dd5af</t>
+          <t>ad5c4963-5bec-46c7-829c-77de3b3f0a13</t>
         </is>
       </c>
     </row>
@@ -3652,12 +3652,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>69ec6084-4475-4ae7-9b1a-7d782f5b438e</t>
+          <t>775cb599-1db7-4c41-84f2-0a2fd49ada7f</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>39cced94-6d92-4ba5-ba7f-ef6711569dbe</t>
+          <t>c433dba7-0410-48b1-b592-0dd5390138bd</t>
         </is>
       </c>
     </row>
@@ -3679,12 +3679,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>69ec6084-4475-4ae7-9b1a-7d782f5b438e</t>
+          <t>775cb599-1db7-4c41-84f2-0a2fd49ada7f</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2b9cfbca-baac-43b1-b0b5-b06c2eecab81</t>
+          <t>c2efc7d9-da2c-4225-b043-3747d0697c60</t>
         </is>
       </c>
     </row>
@@ -3706,12 +3706,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>69ec6084-4475-4ae7-9b1a-7d782f5b438e</t>
+          <t>775cb599-1db7-4c41-84f2-0a2fd49ada7f</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>34cdb0bf-4915-48b6-8371-25be7c5856b1</t>
+          <t>710c4925-dafa-44a5-ad5c-c6e7316b833d</t>
         </is>
       </c>
     </row>
@@ -3733,12 +3733,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>44a39919-b197-444d-b871-e40999b50b35</t>
+          <t>c853dbf0-dab6-456a-b8a0-1b3da3a1746d</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>a9e16562-8991-4c5a-b2bb-41de1f8ddb01</t>
+          <t>490af55a-3953-419f-8969-ffd6890f11ec</t>
         </is>
       </c>
     </row>
@@ -3760,12 +3760,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>44a39919-b197-444d-b871-e40999b50b35</t>
+          <t>c853dbf0-dab6-456a-b8a0-1b3da3a1746d</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>56d3c407-f60b-402a-a18d-70c333fe32c6</t>
+          <t>579c428e-edd0-489d-8624-cdd959cf68e2</t>
         </is>
       </c>
     </row>
@@ -3787,12 +3787,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>e1df70c3-6fa8-45cf-827a-5240f85209dc</t>
+          <t>18d99669-e671-4b3d-8e0a-a61387346fa5</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>e1af8b22-9815-4a51-8f91-a341e707bc96</t>
+          <t>91caa341-b402-4700-b8e8-2062b1c0da15</t>
         </is>
       </c>
     </row>
@@ -3814,12 +3814,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>e1df70c3-6fa8-45cf-827a-5240f85209dc</t>
+          <t>18d99669-e671-4b3d-8e0a-a61387346fa5</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>17db7412-eed3-4ad3-9564-eb5790fb0e71</t>
+          <t>a1a8ac91-177f-424d-9ace-ac530e1ea8cf</t>
         </is>
       </c>
     </row>
@@ -3841,12 +3841,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>8fd98d4e-670b-4f29-9330-4481bef3947b</t>
+          <t>3345e8bc-54b3-4eeb-9422-c8e0ebfc75bd</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>0a9a3a54-962d-4167-81b7-051d75b83611</t>
+          <t>7482a421-84c9-46c0-b5e9-5edd9ac9a56c</t>
         </is>
       </c>
     </row>
@@ -3868,12 +3868,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>c74a0668-920c-40f8-9a16-c05d682c965d</t>
+          <t>13d31dda-2060-48ae-9523-f7300a0aeff5</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>7bf10abd-e50f-4874-9a60-f17007a29fa3</t>
+          <t>2a2b0a05-2caa-4665-8147-e16344c04d70</t>
         </is>
       </c>
     </row>
@@ -3895,12 +3895,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>bc1ac332-692c-4c7a-8fed-588dd8e215ec</t>
+          <t>32710c91-a912-4f82-b979-35603a729cba</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>d6edb7b3-0607-4857-aed8-90fd820a5c01</t>
+          <t>3329a72e-00ce-43d3-b731-7c92aa3fa1ae</t>
         </is>
       </c>
     </row>
@@ -3922,12 +3922,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2fbfe77a-96dc-4825-a424-1136af04d0c7</t>
+          <t>3507bdc1-9d42-4477-90b9-765500ba279d</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>a69ceef7-692b-4d4b-a5ce-e38dbbcf44cd</t>
+          <t>4641afb9-0b4a-45a0-a190-759198e095e2</t>
         </is>
       </c>
     </row>
@@ -3949,12 +3949,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>bc1ac332-692c-4c7a-8fed-588dd8e215ec</t>
+          <t>32710c91-a912-4f82-b979-35603a729cba</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>7600146a-e0b8-4443-b07a-ccafe30c486c</t>
+          <t>35d506e3-b84d-4f0b-92ad-e18bb838ed01</t>
         </is>
       </c>
     </row>
@@ -3976,12 +3976,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>7efcad51-0745-46b2-865d-7820224e22fc</t>
+          <t>2e132e79-e8de-49ff-833a-c50ff171a44d</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>624fd128-548e-4c7f-964c-e864ae300fff</t>
+          <t>52e4a8d0-6ea3-4fa5-9752-8207e06bde48</t>
         </is>
       </c>
     </row>
@@ -4003,12 +4003,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>7efcad51-0745-46b2-865d-7820224e22fc</t>
+          <t>2e132e79-e8de-49ff-833a-c50ff171a44d</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>eead2abf-010b-4288-8fbe-3fc539398995</t>
+          <t>fe99fd1a-f069-4112-a5d3-3f265678e0d4</t>
         </is>
       </c>
     </row>
@@ -4030,12 +4030,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>e2f663fc-3fcd-432f-874f-1b0a9c3701a9</t>
+          <t>860076ee-db95-4319-af3b-0c7f1aa5718d</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>84f55dab-7a7d-49cb-a3aa-da18491bf0ed</t>
+          <t>5c506782-771e-48da-92aa-9acba47a49bb</t>
         </is>
       </c>
     </row>
@@ -4057,12 +4057,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>e2f663fc-3fcd-432f-874f-1b0a9c3701a9</t>
+          <t>860076ee-db95-4319-af3b-0c7f1aa5718d</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>f135d641-2767-481c-9f1d-4069e9afcf9e</t>
+          <t>f6facd28-dc77-4026-9ff5-82257508f3c9</t>
         </is>
       </c>
     </row>
@@ -4084,12 +4084,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>e2f663fc-3fcd-432f-874f-1b0a9c3701a9</t>
+          <t>860076ee-db95-4319-af3b-0c7f1aa5718d</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>9d02f436-1588-4b8d-a76b-d7a17e0e8758</t>
+          <t>b523af2a-ccf1-4f11-8246-175b21894934</t>
         </is>
       </c>
     </row>
@@ -4111,12 +4111,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>e99ce218-fefb-46cc-ba44-c91cbca690fa</t>
+          <t>b7a9945f-5a60-4599-919b-f30476cb99b8</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>02686f9e-03cf-4cf0-aa26-16dd1154badc</t>
+          <t>78c2af82-47b1-4ad6-8189-9aba5b7cdbbc</t>
         </is>
       </c>
     </row>
@@ -4138,12 +4138,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>44923a76-dec0-42b9-b7f5-567bd87a1b90</t>
+          <t>7f536946-c544-404f-9400-4b37847f8a3f</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>b8210fda-923f-44a8-a3e5-80ceaf1b0eff</t>
+          <t>cbed027c-dc9b-43d4-b4f8-730143ad7b79</t>
         </is>
       </c>
     </row>
@@ -4165,12 +4165,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>44923a76-dec0-42b9-b7f5-567bd87a1b90</t>
+          <t>7f536946-c544-404f-9400-4b37847f8a3f</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1f5293ce-a564-4d42-a9bc-4f34d632aa90</t>
+          <t>c7daa8d0-46ed-4cd6-b90b-600c3c1095ed</t>
         </is>
       </c>
     </row>
@@ -4192,12 +4192,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>44923a76-dec0-42b9-b7f5-567bd87a1b90</t>
+          <t>7f536946-c544-404f-9400-4b37847f8a3f</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>9e9e5420-4241-405c-bf14-a2678cae8555</t>
+          <t>214c72ae-ed1d-413a-bdc3-cf307debf8a8</t>
         </is>
       </c>
     </row>
@@ -4219,12 +4219,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>b310fae9-8cf0-46c6-a1df-c4a790fc27ae</t>
+          <t>2164f89b-806d-424a-96fd-7fb4703a7d3b</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>e538e3d3-a22a-4e0f-b2f8-bede02b94b2f</t>
+          <t>cc2e479a-eca9-41d7-929a-11e182ba392e</t>
         </is>
       </c>
     </row>
@@ -4246,12 +4246,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>63aed70d-3598-4e3a-8240-491255da77c8</t>
+          <t>509fdee2-87e8-42b8-bdab-71d2b8e5fff2</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>8127c0e3-eb33-4a3c-9a1c-48e6b0138cbb</t>
+          <t>52d9f050-2005-4fc8-9470-b102e79343ee</t>
         </is>
       </c>
     </row>
@@ -4273,12 +4273,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>63aed70d-3598-4e3a-8240-491255da77c8</t>
+          <t>509fdee2-87e8-42b8-bdab-71d2b8e5fff2</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>dfb373c4-21ac-48fd-8f77-c1872c32ace6</t>
+          <t>d5dd1410-5b4b-4368-8693-5671764e2943</t>
         </is>
       </c>
     </row>
@@ -4300,12 +4300,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>b0548228-bc57-4854-b88c-8512a0238c6b</t>
+          <t>441f1ceb-5eb6-4bbb-9c33-58195bf33ca1</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>7fa8cbd6-0e0a-40bb-be25-40c2db5e63dd</t>
+          <t>e1212174-bc49-422b-8ba8-66615b198442</t>
         </is>
       </c>
     </row>
@@ -4327,12 +4327,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>b0548228-bc57-4854-b88c-8512a0238c6b</t>
+          <t>441f1ceb-5eb6-4bbb-9c33-58195bf33ca1</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>516fe594-c402-4a50-b9be-93e3227a9a6b</t>
+          <t>8daf037f-39be-41db-8276-912ad334f391</t>
         </is>
       </c>
     </row>
@@ -4354,12 +4354,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>b0548228-bc57-4854-b88c-8512a0238c6b</t>
+          <t>441f1ceb-5eb6-4bbb-9c33-58195bf33ca1</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>5074a70d-b266-4896-ace1-c8e04ad14de4</t>
+          <t>82bbec38-2509-4901-b6df-a848aa701802</t>
         </is>
       </c>
     </row>
@@ -4381,12 +4381,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>940f7cc6-6243-4925-8e05-ab5d5cc4922e</t>
+          <t>a96ab5eb-7e2e-4d9e-a272-8e93bf902659</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>8153ff15-e7ee-4957-8404-3d52dc31174e</t>
+          <t>5e83dab7-0a8b-4a36-aa91-f07e177da8b8</t>
         </is>
       </c>
     </row>
@@ -4408,12 +4408,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>51f72ac1-c0bd-4e3e-b005-295941bdcef4</t>
+          <t>aad9afaf-0273-440d-b48e-1cbb6e267e3a</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>d70b8610-d8d7-4576-94fa-348022a87742</t>
+          <t>2f81057e-566d-4bad-a138-f2bb6d18b9f9</t>
         </is>
       </c>
     </row>
@@ -4435,12 +4435,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>b1a49300-9448-42c3-b91f-fc793da799a9</t>
+          <t>2293e699-4f71-42c8-b6dd-23bb6a2294f6</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>c27bcadf-3633-4d69-8c85-73907c5b156b</t>
+          <t>994893d5-8702-4c2b-99c4-90992711308c</t>
         </is>
       </c>
     </row>
@@ -4462,12 +4462,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>b1a49300-9448-42c3-b91f-fc793da799a9</t>
+          <t>2293e699-4f71-42c8-b6dd-23bb6a2294f6</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>63c62848-7566-407e-93da-ec5fed891639</t>
+          <t>7c13fbce-8b08-4967-8356-20b51ba08bf8</t>
         </is>
       </c>
     </row>
@@ -4489,12 +4489,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>b1a49300-9448-42c3-b91f-fc793da799a9</t>
+          <t>2293e699-4f71-42c8-b6dd-23bb6a2294f6</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>8dce711b-6f76-4852-8495-4041a6a3c891</t>
+          <t>d475722a-35fb-49e7-a781-987e1d70d9c2</t>
         </is>
       </c>
     </row>
@@ -4516,12 +4516,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>b1a49300-9448-42c3-b91f-fc793da799a9</t>
+          <t>2293e699-4f71-42c8-b6dd-23bb6a2294f6</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>c80e3643-8d1f-4f3a-b873-ce62ba05e547</t>
+          <t>5a044674-8db1-4d97-b603-b09060419e93</t>
         </is>
       </c>
     </row>
@@ -4543,12 +4543,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>b1a49300-9448-42c3-b91f-fc793da799a9</t>
+          <t>2293e699-4f71-42c8-b6dd-23bb6a2294f6</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>2840478c-6db7-4298-9bf5-802e69a64328</t>
+          <t>b6bf61f7-a2ab-45cb-b1cb-f01891b29858</t>
         </is>
       </c>
     </row>
@@ -4570,12 +4570,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>b1a49300-9448-42c3-b91f-fc793da799a9</t>
+          <t>2293e699-4f71-42c8-b6dd-23bb6a2294f6</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>e9db7d49-8180-49e0-822d-00a3aebf6cfc</t>
+          <t>5569a146-f363-4e30-9034-88d6b2476434</t>
         </is>
       </c>
     </row>
@@ -4597,12 +4597,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>b1a49300-9448-42c3-b91f-fc793da799a9</t>
+          <t>2293e699-4f71-42c8-b6dd-23bb6a2294f6</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>50c82652-3b39-4a2e-b099-afd4b427abf1</t>
+          <t>cbd75f8d-6856-453c-b5dc-2e23a281816a</t>
         </is>
       </c>
     </row>
@@ -4624,12 +4624,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>b1a49300-9448-42c3-b91f-fc793da799a9</t>
+          <t>2293e699-4f71-42c8-b6dd-23bb6a2294f6</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>cf64c8d3-feb2-4a61-a1cb-08387937647c</t>
+          <t>1c726d87-99af-4ef9-b659-cd6c8040308d</t>
         </is>
       </c>
     </row>
@@ -4651,12 +4651,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>b1a49300-9448-42c3-b91f-fc793da799a9</t>
+          <t>2293e699-4f71-42c8-b6dd-23bb6a2294f6</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>475fb82e-e4bf-4afd-974b-85c54ef8e514</t>
+          <t>a6bf689d-5e8a-490c-8d88-907136b5bd23</t>
         </is>
       </c>
     </row>
@@ -4678,12 +4678,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>b1a49300-9448-42c3-b91f-fc793da799a9</t>
+          <t>2293e699-4f71-42c8-b6dd-23bb6a2294f6</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>b04964e1-80e4-4b87-9591-432ffd09bae5</t>
+          <t>cbed72ea-0a4f-4bee-98e9-42cbf0141cf5</t>
         </is>
       </c>
     </row>
@@ -4705,12 +4705,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>3f7ce195-2c6d-41ee-8876-dd1944bf9fa8</t>
+          <t>2255740a-2a4c-40a7-bfee-b31384e760af</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>3725d166-b64c-4939-9dfa-f09df716aff2</t>
+          <t>f317c2b3-8e3e-452f-a108-87f2693135d0</t>
         </is>
       </c>
     </row>
@@ -4732,12 +4732,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>3f7ce195-2c6d-41ee-8876-dd1944bf9fa8</t>
+          <t>2255740a-2a4c-40a7-bfee-b31384e760af</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>98373d85-9904-46c8-8552-997d779791f8</t>
+          <t>f2ac454f-8094-495e-b6c2-7a0e0b72afa1</t>
         </is>
       </c>
     </row>
@@ -4759,12 +4759,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>3f7ce195-2c6d-41ee-8876-dd1944bf9fa8</t>
+          <t>2255740a-2a4c-40a7-bfee-b31384e760af</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>870b21a5-a2ec-407d-9adb-fb3c831c94c3</t>
+          <t>033d0fcb-694e-4144-8dc9-d2384744afd1</t>
         </is>
       </c>
     </row>
@@ -4786,12 +4786,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>3f7ce195-2c6d-41ee-8876-dd1944bf9fa8</t>
+          <t>2255740a-2a4c-40a7-bfee-b31384e760af</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>c4884199-72b5-410e-9349-47cb0de2f03f</t>
+          <t>07d13dc6-6836-4b7c-9683-4c23b197c3ae</t>
         </is>
       </c>
     </row>
@@ -4813,12 +4813,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>3f7ce195-2c6d-41ee-8876-dd1944bf9fa8</t>
+          <t>2255740a-2a4c-40a7-bfee-b31384e760af</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>56547200-b694-4657-8b02-8d439682a62a</t>
+          <t>c6f4debd-5fea-4e5b-93bd-22a88537f807</t>
         </is>
       </c>
     </row>
@@ -4840,12 +4840,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>3f7ce195-2c6d-41ee-8876-dd1944bf9fa8</t>
+          <t>2255740a-2a4c-40a7-bfee-b31384e760af</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>33a00eed-d33f-49e8-bbcf-18de60a10078</t>
+          <t>b9ebdf9f-c4e6-41e9-823b-8f10fabce28c</t>
         </is>
       </c>
     </row>
@@ -4867,12 +4867,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>73c3a5b8-61f7-43f9-9395-ed0e46ca7186</t>
+          <t>15d26884-6053-4bc1-a891-fa830a25e2b6</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>d9915e78-bc85-4cc6-a2bc-cfa0598e0989</t>
+          <t>e8978b3c-d51b-4602-aa8c-daac2ccd6942</t>
         </is>
       </c>
     </row>
@@ -4894,12 +4894,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>73c3a5b8-61f7-43f9-9395-ed0e46ca7186</t>
+          <t>15d26884-6053-4bc1-a891-fa830a25e2b6</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>2d115c65-1b60-4cd3-8666-a6eeb8f8a1db</t>
+          <t>dff9623e-02d9-4783-981d-8494a00d6620</t>
         </is>
       </c>
     </row>
@@ -4921,12 +4921,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>5daa74a4-05a3-467f-acc9-dcc45b549b89</t>
+          <t>37820c98-e9a1-4b21-9ba6-d28b0c80fdf0</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>e642c04e-28be-4fa5-be1d-9fdf8ddce41b</t>
+          <t>3d2aedab-9331-4acf-9b99-c2603dd2cddd</t>
         </is>
       </c>
     </row>
@@ -4948,12 +4948,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>5daa74a4-05a3-467f-acc9-dcc45b549b89</t>
+          <t>37820c98-e9a1-4b21-9ba6-d28b0c80fdf0</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>b3255c3c-bed8-4996-8b01-cd47af52a29f</t>
+          <t>8cc74555-59d0-4205-b85c-6c7ceba25482</t>
         </is>
       </c>
     </row>
@@ -4975,12 +4975,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>5daa74a4-05a3-467f-acc9-dcc45b549b89</t>
+          <t>37820c98-e9a1-4b21-9ba6-d28b0c80fdf0</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>22512bec-ae66-4c69-bdc7-1a5e3859fc82</t>
+          <t>41b5ae9d-c060-46e7-9ded-62ba324278e4</t>
         </is>
       </c>
     </row>
@@ -5002,12 +5002,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>5daa74a4-05a3-467f-acc9-dcc45b549b89</t>
+          <t>37820c98-e9a1-4b21-9ba6-d28b0c80fdf0</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>2ef96daa-70ac-4e7a-8021-a2ecac6f212f</t>
+          <t>9329b28c-1a39-4a57-aea6-7e2b5cf9b2f5</t>
         </is>
       </c>
     </row>
@@ -5029,12 +5029,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>5daa74a4-05a3-467f-acc9-dcc45b549b89</t>
+          <t>37820c98-e9a1-4b21-9ba6-d28b0c80fdf0</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>65012ad3-8a44-4175-beb4-c28bdbe6e8b2</t>
+          <t>6c9252b1-c1dc-44f1-9ee9-606c8b738831</t>
         </is>
       </c>
     </row>
@@ -5056,12 +5056,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>8ec2b1b4-56de-4955-8c2a-a9164b57170e</t>
+          <t>68607572-0220-41de-a0e8-4a4e0439f2ca</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>a068dd5e-690a-41ee-9f10-be78f373195f</t>
+          <t>c229468e-2637-4092-a8ff-aa41f494a711</t>
         </is>
       </c>
     </row>
@@ -5083,12 +5083,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>8ec2b1b4-56de-4955-8c2a-a9164b57170e</t>
+          <t>68607572-0220-41de-a0e8-4a4e0439f2ca</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>a236e136-e5d1-4a89-bde2-2370b25281f0</t>
+          <t>b270543e-c36b-465f-bfef-74e05430b0d9</t>
         </is>
       </c>
     </row>
@@ -5110,12 +5110,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>e8b93aa8-bc6d-478d-9321-c5444c93e191</t>
+          <t>a96b7734-ce9b-46af-9a68-79456eeb068e</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>153e7487-c1b5-4f7a-8ba5-4d7eab3b01b8</t>
+          <t>5c595279-3fa4-4724-81e4-b14b05ff922a</t>
         </is>
       </c>
     </row>
@@ -5137,12 +5137,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>e8b93aa8-bc6d-478d-9321-c5444c93e191</t>
+          <t>a96b7734-ce9b-46af-9a68-79456eeb068e</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>54827232-33a9-4b37-8a2c-dc2df6401cba</t>
+          <t>5e690211-7260-4b74-b2cd-39b9a1b4a57a</t>
         </is>
       </c>
     </row>
@@ -5164,12 +5164,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>e7aa8881-168f-4f65-bb87-0ad8a6845a38</t>
+          <t>9cb20663-931d-4cc3-829f-0df552ebfda2</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>f8b3aed1-ac3c-49b8-9fe8-f8afc2d6a289</t>
+          <t>d2bfd583-0cb2-4d36-ab96-0787af209068</t>
         </is>
       </c>
     </row>
@@ -5191,12 +5191,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>e7aa8881-168f-4f65-bb87-0ad8a6845a38</t>
+          <t>9cb20663-931d-4cc3-829f-0df552ebfda2</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>6878d296-63ad-4422-b055-9f27308b69b4</t>
+          <t>6e98ee8b-615c-466c-8274-1f936e80b1f7</t>
         </is>
       </c>
     </row>
@@ -5218,12 +5218,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>56b69d42-3523-460f-99a3-eb0f07920362</t>
+          <t>7d873df6-b274-451d-be16-b7a266bd9ec5</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>44b9b6da-e0e8-421f-a5a5-f5b8d7635df9</t>
+          <t>ea1f4269-e5d1-4c95-8ae4-134a8bce21e9</t>
         </is>
       </c>
     </row>
@@ -5245,12 +5245,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>a191e446-59b3-4608-945f-16e436301ae5</t>
+          <t>d1d9e9a8-1232-4f4f-801f-5a1860738d2a</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>f623ba76-75e7-4116-9612-03d66c5254a6</t>
+          <t>3999adfd-36ed-4522-bbb2-96fce3a9a56f</t>
         </is>
       </c>
     </row>
@@ -5272,12 +5272,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>70408894-59e3-47ee-a334-0642af7f6911</t>
+          <t>610782a8-7c16-40a7-86fb-552e36e98f96</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>2ef07523-6e52-4a73-b129-521dbb16e504</t>
+          <t>4f2b0853-8cd1-49fd-bba3-3cef8e2de0e6</t>
         </is>
       </c>
     </row>
@@ -5299,12 +5299,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>19eb7c1f-3986-476b-bf44-b5a2100a8bb7</t>
+          <t>6b9f3431-9a9e-4e1c-88ff-2a9fb26987c5</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>6bdecd4f-496a-4a88-a081-80b2b9b8ca87</t>
+          <t>980e2512-651d-4f51-8aef-20f70a9854dc</t>
         </is>
       </c>
     </row>
@@ -5326,12 +5326,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>1d4112ca-0338-4be7-bcac-f0024c2a40be</t>
+          <t>4ada2532-b775-4356-aedc-fb44a907d5a1</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>0dd21de0-083d-4c6e-804a-eaae57dd033d</t>
+          <t>80e9bb24-f040-471a-a910-2672113aeb0c</t>
         </is>
       </c>
     </row>
@@ -5353,12 +5353,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>786156b5-af1b-46ac-9726-73b5d3cbacd8</t>
+          <t>0529c78f-9423-4261-b477-c6d80201aede</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>328c9595-39fe-44ab-9d6a-113d56497de0</t>
+          <t>d491e915-18b8-4685-ba32-dccb3cce7182</t>
         </is>
       </c>
     </row>
@@ -5380,12 +5380,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>01ae3d20-448d-4118-b512-01387b0880f8</t>
+          <t>081865f2-5758-4a63-8fd4-f196e64fa1d5</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>49bc4e87-f2d0-428f-9749-f87aead69a87</t>
+          <t>65e78dc9-4836-4606-ae94-faa7c717c59a</t>
         </is>
       </c>
     </row>
@@ -5407,12 +5407,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>0e7d18ed-4a66-4db4-a681-d011719c239a</t>
+          <t>8d090e87-9fd7-4ab0-9697-6142136fc4da</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>f4962b5a-2c92-4e90-8d25-905e77f3f5e8</t>
+          <t>ac9e58b5-9506-4637-9456-8b08236feb9b</t>
         </is>
       </c>
     </row>
@@ -5434,12 +5434,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>0e7d18ed-4a66-4db4-a681-d011719c239a</t>
+          <t>8d090e87-9fd7-4ab0-9697-6142136fc4da</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>2d245c68-c2b3-42c6-bb29-bb8034a36b91</t>
+          <t>9637ff31-e7bb-4c5c-8ade-49ff793d0a9b</t>
         </is>
       </c>
     </row>
@@ -5461,12 +5461,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>0e7d18ed-4a66-4db4-a681-d011719c239a</t>
+          <t>8d090e87-9fd7-4ab0-9697-6142136fc4da</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>f058b3e8-c845-4ecf-8f76-4b4bb2183445</t>
+          <t>9af07619-c5a6-417b-b4ee-36d068002451</t>
         </is>
       </c>
     </row>
@@ -5488,12 +5488,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>0e7d18ed-4a66-4db4-a681-d011719c239a</t>
+          <t>8d090e87-9fd7-4ab0-9697-6142136fc4da</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>4103114c-d818-4bf0-b95e-ee492ee5d75c</t>
+          <t>b3d059ba-25dc-4b0d-8eb8-238dac88dab9</t>
         </is>
       </c>
     </row>
@@ -5515,12 +5515,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>d141a73f-cd93-4a93-801e-33b51dc8600f</t>
+          <t>766e6076-dd3a-4014-846b-163e2c16dcfe</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>8fb0a1da-a593-4743-9812-b26b821fcc88</t>
+          <t>a3324547-413a-4df6-b33b-14c09d20a6dd</t>
         </is>
       </c>
     </row>
@@ -5542,12 +5542,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>d141a73f-cd93-4a93-801e-33b51dc8600f</t>
+          <t>766e6076-dd3a-4014-846b-163e2c16dcfe</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>7fb85328-f692-4bbe-a7e0-b6365098c7e0</t>
+          <t>dd91d0e3-2c5f-48a2-a485-90d0d2a904f6</t>
         </is>
       </c>
     </row>
@@ -5569,12 +5569,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>d141a73f-cd93-4a93-801e-33b51dc8600f</t>
+          <t>766e6076-dd3a-4014-846b-163e2c16dcfe</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>5dbf71fe-b558-4468-8d23-6ff105d0c60d</t>
+          <t>7e5014a6-ff04-4581-8b91-747feb5e070b</t>
         </is>
       </c>
     </row>
@@ -5596,12 +5596,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>d141a73f-cd93-4a93-801e-33b51dc8600f</t>
+          <t>766e6076-dd3a-4014-846b-163e2c16dcfe</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>060d34a3-5056-42e8-ab13-d47784f4d6c4</t>
+          <t>0e0e0da2-2e88-45ec-9250-10276f47e946</t>
         </is>
       </c>
     </row>
@@ -5623,12 +5623,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>0e7d18ed-4a66-4db4-a681-d011719c239a</t>
+          <t>8d090e87-9fd7-4ab0-9697-6142136fc4da</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>38f26374-850b-4b53-a56f-b50347d917c7</t>
+          <t>363a11de-05fc-4031-bbd8-eab22933fdb0</t>
         </is>
       </c>
     </row>
@@ -5650,12 +5650,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>d141a73f-cd93-4a93-801e-33b51dc8600f</t>
+          <t>766e6076-dd3a-4014-846b-163e2c16dcfe</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>b180162b-7a08-4dc7-b224-7d160bb04c98</t>
+          <t>91c6d186-f83c-43d4-81e8-c319c27c7bed</t>
         </is>
       </c>
     </row>
@@ -5677,12 +5677,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>36069673-4dab-4aa2-bdf9-ea6e7da34793</t>
+          <t>0104652a-87f7-4cea-b0e7-ddec84ac62e6</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>85b97db1-1af7-4147-801d-81f1dff3159e</t>
+          <t>f6e679cd-f0a1-4b34-a79e-69175f4862a7</t>
         </is>
       </c>
     </row>
@@ -5704,12 +5704,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>36069673-4dab-4aa2-bdf9-ea6e7da34793</t>
+          <t>0104652a-87f7-4cea-b0e7-ddec84ac62e6</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>4c0c265f-2697-4a26-9e2e-90255a62457a</t>
+          <t>48b486cc-ccf7-473b-8900-b020b01621d0</t>
         </is>
       </c>
     </row>
@@ -5731,12 +5731,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>edeee92f-039c-4832-b87f-ea68778976cc</t>
+          <t>6b0d5fd6-a536-426d-a9fb-b8d02e0710b3</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>bef9053d-52bd-4423-a10c-d5c2b7a144cb</t>
+          <t>48a43f8c-1d67-4452-b4ca-e1a9ba14ef90</t>
         </is>
       </c>
     </row>
@@ -5758,12 +5758,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>03178945-3d79-45b4-9294-1d30fd867e5a</t>
+          <t>4f819f6a-fd64-4b2b-aacd-8ad85c11cbed</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>29a415ab-f9dc-420f-aa9e-d61874e657e8</t>
+          <t>508027f0-ba44-4d96-a5a0-c89ea833700d</t>
         </is>
       </c>
     </row>
@@ -5785,12 +5785,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>5ff3ca4f-e40d-4c7f-8a9c-236ca9b03f7c</t>
+          <t>d319d260-23f0-4534-8866-101fcaa60116</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>3be0b062-ec9c-44c1-bd68-462934e73a26</t>
+          <t>02449c2e-2ccc-4dd9-9041-80e89adb0eaf</t>
         </is>
       </c>
     </row>
@@ -5812,12 +5812,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>06c7e4b9-5bb8-4fcf-bc16-9d13042e3aba</t>
+          <t>24986752-17fc-48ff-84f5-6b33c5fc5a80</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>546e242a-0b72-407d-be66-ee19a1e9154a</t>
+          <t>a0b61845-d795-4411-9d20-a96d40c8793e</t>
         </is>
       </c>
     </row>
@@ -5839,12 +5839,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>06c7e4b9-5bb8-4fcf-bc16-9d13042e3aba</t>
+          <t>24986752-17fc-48ff-84f5-6b33c5fc5a80</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>526a8bc1-24a9-47e4-aaa5-b4bb18366525</t>
+          <t>593d4dd5-614a-49d5-a88d-b352067b90b0</t>
         </is>
       </c>
     </row>
@@ -5866,12 +5866,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>06c7e4b9-5bb8-4fcf-bc16-9d13042e3aba</t>
+          <t>24986752-17fc-48ff-84f5-6b33c5fc5a80</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>e03b7ddd-8730-4b5f-83cc-9940a7986dcc</t>
+          <t>b3b2107d-a0f1-4669-80d2-a23f51a99e92</t>
         </is>
       </c>
     </row>
@@ -5893,12 +5893,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>06c7e4b9-5bb8-4fcf-bc16-9d13042e3aba</t>
+          <t>24986752-17fc-48ff-84f5-6b33c5fc5a80</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>d35bb923-4eb2-468a-8442-017150a5148c</t>
+          <t>089c3bb7-b321-4503-b871-3cc8f679f938</t>
         </is>
       </c>
     </row>
@@ -5920,12 +5920,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>06c7e4b9-5bb8-4fcf-bc16-9d13042e3aba</t>
+          <t>24986752-17fc-48ff-84f5-6b33c5fc5a80</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>e975ca85-943e-4321-826c-0eaa02cb98ac</t>
+          <t>73db0c21-8d05-445e-9689-c8f5f10ad660</t>
         </is>
       </c>
     </row>
@@ -5947,12 +5947,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>471204d7-54df-4318-8d50-b0856f03b8eb</t>
+          <t>fe232e43-4ba9-42a2-a337-83c39ab66bbd</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>a497cac3-2d4d-4259-a3a6-8d3821bb28dd</t>
+          <t>c4fbfc20-fcc9-4938-b0e6-cf31e0259882</t>
         </is>
       </c>
     </row>
@@ -5974,12 +5974,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>7fc94c72-4200-4ece-adea-3d41e7664f6b</t>
+          <t>c69eee6b-4d2d-421a-bbc4-dda6d5c552bf</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>f62f1827-0dfa-4e3e-a48f-f6f3ba2278f8</t>
+          <t>e6c53c30-3426-4618-864c-996e1139d534</t>
         </is>
       </c>
     </row>
@@ -6001,12 +6001,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>34877966-81a8-441f-9a2f-6c4268f1ff0a</t>
+          <t>f95a5617-9598-4ffa-80c9-e63a27906aa4</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>77e23262-c7ed-4bf7-b8ad-e1754958c158</t>
+          <t>7cfe8b16-235f-4236-938d-e0631965d501</t>
         </is>
       </c>
     </row>
@@ -6028,12 +6028,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>1ba62146-5f0c-4d35-aba6-888c06deb8ce</t>
+          <t>74417b47-a306-4022-85f0-501d2c3b4c1b</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>670c1842-dcae-4e5f-8f2e-a216157549f7</t>
+          <t>7c3d752c-6d28-4de2-82d3-0615faf8f7df</t>
         </is>
       </c>
     </row>
@@ -6055,12 +6055,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>dc43a8e4-fd83-447b-9dc8-baba8686af06</t>
+          <t>7f9f634e-1b02-4c59-9d5e-1fc71bbcc162</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>6b129002-9075-4dfb-9724-40cd998d1b91</t>
+          <t>99b48a08-fb99-4e06-a25b-8270978017ce</t>
         </is>
       </c>
     </row>
@@ -6082,12 +6082,12 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>dc43a8e4-fd83-447b-9dc8-baba8686af06</t>
+          <t>7f9f634e-1b02-4c59-9d5e-1fc71bbcc162</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>d78986d0-1358-48be-95b7-d47f70d19b31</t>
+          <t>450f421c-10e5-473c-aa5b-2220b2aa6760</t>
         </is>
       </c>
     </row>
@@ -6109,12 +6109,12 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>dc43a8e4-fd83-447b-9dc8-baba8686af06</t>
+          <t>7f9f634e-1b02-4c59-9d5e-1fc71bbcc162</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>f1290ae0-0db8-4807-85ef-5e1cf4d961f2</t>
+          <t>2719fde2-c8c0-4be5-80c5-78de25edf96b</t>
         </is>
       </c>
     </row>
@@ -6136,12 +6136,12 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>f74ff94d-da44-4cc0-b26f-2bddea3fde2f</t>
+          <t>e0540a36-29ba-4d4d-a72e-c1f19d5a91c3</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>71a57ba3-3239-4117-b58d-c7df5a2d6b3f</t>
+          <t>eead0395-5035-4a70-ab5b-460bf564ca58</t>
         </is>
       </c>
     </row>
@@ -6163,12 +6163,12 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>f74ff94d-da44-4cc0-b26f-2bddea3fde2f</t>
+          <t>e0540a36-29ba-4d4d-a72e-c1f19d5a91c3</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>69a7061a-b61c-4f45-bea9-0dc90c53fb0f</t>
+          <t>2412f490-9bf5-4261-8f16-42f4e4594c2a</t>
         </is>
       </c>
     </row>
@@ -6190,12 +6190,12 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>cc725a87-719d-4bf5-872c-d2f6ca5b1892</t>
+          <t>71e08107-77f7-490a-aed2-a386f025b9e2</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>70d491ab-2aca-4a05-840c-983deed455a0</t>
+          <t>ff1c11d2-c089-47b9-b3da-e241f24911ee</t>
         </is>
       </c>
     </row>
@@ -6217,12 +6217,12 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>46a80589-2179-4d91-8f96-32335b2c545e</t>
+          <t>5a6b2c9b-764a-4dd4-b3aa-a527a92a80a4</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>5ff30b1c-d429-4cfa-b32e-14418433f8b8</t>
+          <t>61dc23a4-cb32-4a14-925d-03af3eff7af8</t>
         </is>
       </c>
     </row>
@@ -6244,12 +6244,12 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>f308fab3-77d2-4339-af06-e10ff021e627</t>
+          <t>20100c8e-557c-4588-9672-27372823f50f</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>92d96e0c-a479-460e-9bf5-e97bfd8d12b6</t>
+          <t>7c8a272d-53fc-41b5-989e-6b18ce652bee</t>
         </is>
       </c>
     </row>
@@ -6271,12 +6271,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>1023cbb9-b37c-45bf-ba7f-f534115df68d</t>
+          <t>80bdfc60-c119-4a2e-848e-b3656ea32656</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>60a79368-62ef-4476-a5e1-e1bc3655da4b</t>
+          <t>1421fa30-85d9-4775-984a-81e834f6022e</t>
         </is>
       </c>
     </row>
@@ -6298,12 +6298,12 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>1023cbb9-b37c-45bf-ba7f-f534115df68d</t>
+          <t>80bdfc60-c119-4a2e-848e-b3656ea32656</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>2cd06d25-421b-4b28-9298-4c8d073df3f7</t>
+          <t>7ed03d7e-6822-4e48-a036-2314fe14590a</t>
         </is>
       </c>
     </row>
@@ -6325,12 +6325,12 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>b1a49300-9448-42c3-b91f-fc793da799a9</t>
+          <t>2293e699-4f71-42c8-b6dd-23bb6a2294f6</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>a650a79b-847d-49cc-bc99-0e05bb88dc72</t>
+          <t>15af942f-6b7a-45c9-ad1f-500f11c58b18</t>
         </is>
       </c>
     </row>
@@ -6352,12 +6352,12 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>067572f2-33f2-4d7b-9860-66c91d9a516f</t>
+          <t>d4677263-2d88-4ed3-949b-8b2cd36374f4</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>489376df-853e-4e05-9fda-f52201a34d14</t>
+          <t>09e55f52-5b80-4b79-82f0-e1ab1184dec0</t>
         </is>
       </c>
     </row>
@@ -6379,12 +6379,12 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>067572f2-33f2-4d7b-9860-66c91d9a516f</t>
+          <t>d4677263-2d88-4ed3-949b-8b2cd36374f4</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>0f037377-a848-46c7-aa5c-432904110dc0</t>
+          <t>529aef4e-6b8e-4e3b-bd62-c5fef389286d</t>
         </is>
       </c>
     </row>
@@ -6406,12 +6406,12 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>067572f2-33f2-4d7b-9860-66c91d9a516f</t>
+          <t>d4677263-2d88-4ed3-949b-8b2cd36374f4</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>a10fa75c-a1d1-42f2-8ccd-b9435daed938</t>
+          <t>03a38966-1fd4-429b-bd6c-c94460d99913</t>
         </is>
       </c>
     </row>
@@ -6433,12 +6433,12 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>9238fe43-df41-4f85-a71a-18ccbf581fe8</t>
+          <t>196bdd55-6d5e-40bc-8897-e91f65e290ac</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>e41478cd-9648-4d1b-a8a6-2b93709c4e2b</t>
+          <t>46fd4bc5-3496-45de-9e4f-bbf7fa5c18c5</t>
         </is>
       </c>
     </row>
@@ -6460,12 +6460,12 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>9238fe43-df41-4f85-a71a-18ccbf581fe8</t>
+          <t>196bdd55-6d5e-40bc-8897-e91f65e290ac</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>4c440e14-b6f9-4767-b9cd-ad50910c5990</t>
+          <t>51956b5d-9df4-4299-8e29-892d45d5fae3</t>
         </is>
       </c>
     </row>
@@ -6487,12 +6487,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>9238fe43-df41-4f85-a71a-18ccbf581fe8</t>
+          <t>196bdd55-6d5e-40bc-8897-e91f65e290ac</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>51ef73ef-5cc8-4260-8fed-c0f2663424ec</t>
+          <t>d9c31f52-8eac-468b-846b-b6ec03ec260d</t>
         </is>
       </c>
     </row>
@@ -6514,12 +6514,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>9238fe43-df41-4f85-a71a-18ccbf581fe8</t>
+          <t>196bdd55-6d5e-40bc-8897-e91f65e290ac</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>d1a45906-8ff0-41ee-82c2-7129fac91fc7</t>
+          <t>4c33c2a6-acbd-4a4b-b613-9d38710b9aca</t>
         </is>
       </c>
     </row>
@@ -6541,12 +6541,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>98390e1d-7910-43c4-8fbf-eff92d878774</t>
+          <t>20fc02a3-3420-401b-82bb-78912ffc174e</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>1fcdf383-493f-4492-931c-81c223822236</t>
+          <t>06dd6e93-5ee2-4e41-abcf-eb9240f1a093</t>
         </is>
       </c>
     </row>
@@ -6568,12 +6568,12 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>a0be9c13-3f4a-4223-9d3b-84a3d70d6366</t>
+          <t>4262fbd3-fa48-4671-b34a-57b5cbc2e289</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>6ca456f7-637f-4651-9942-08dd1f27c29a</t>
+          <t>4000f698-7aab-4ac9-85c0-c1a8fc426f56</t>
         </is>
       </c>
     </row>
@@ -6595,12 +6595,12 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>a0be9c13-3f4a-4223-9d3b-84a3d70d6366</t>
+          <t>4262fbd3-fa48-4671-b34a-57b5cbc2e289</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>2f71847a-e512-4333-a398-364b22339761</t>
+          <t>24159314-8165-4c3d-8023-97d4ce2870ff</t>
         </is>
       </c>
     </row>
@@ -6622,12 +6622,12 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>a0be9c13-3f4a-4223-9d3b-84a3d70d6366</t>
+          <t>4262fbd3-fa48-4671-b34a-57b5cbc2e289</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>a9e9c42c-77f8-4fe1-bb5d-5e5336e42645</t>
+          <t>ffb24bb4-5ee9-4778-821d-9ac5ba96aec8</t>
         </is>
       </c>
     </row>
@@ -6649,12 +6649,12 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>a0be9c13-3f4a-4223-9d3b-84a3d70d6366</t>
+          <t>4262fbd3-fa48-4671-b34a-57b5cbc2e289</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>18256acc-2e6a-4a66-b229-fa12e36b16da</t>
+          <t>b70e0bb7-a34f-4f57-b5c4-f168891cd156</t>
         </is>
       </c>
     </row>
@@ -6676,12 +6676,12 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>a0be9c13-3f4a-4223-9d3b-84a3d70d6366</t>
+          <t>4262fbd3-fa48-4671-b34a-57b5cbc2e289</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>01a801cd-e805-4575-b8c5-6218f9aeac3e</t>
+          <t>561e7b67-15e0-4297-bcc3-90c27a1d97b6</t>
         </is>
       </c>
     </row>
@@ -6703,12 +6703,12 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>b30b0052-c6ed-43cc-a55b-003dc11f539e</t>
+          <t>d181af58-55f2-4c04-a437-b7038949ae4a</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>8f011858-d849-47bc-88f3-3e13360e51d7</t>
+          <t>46471eaf-6b67-4016-a6e1-ba483c4c6410</t>
         </is>
       </c>
     </row>
@@ -6730,12 +6730,12 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>9667045b-d408-4091-9d3a-e8e763031df6</t>
+          <t>e4fa548e-d28d-425b-a167-e3967a7101dc</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>0a75bdd9-5a48-448e-80e5-e43268c3c730</t>
+          <t>cdda4713-d728-4fb0-b92a-5f92e7c8ae65</t>
         </is>
       </c>
     </row>
@@ -6757,12 +6757,12 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>9667045b-d408-4091-9d3a-e8e763031df6</t>
+          <t>e4fa548e-d28d-425b-a167-e3967a7101dc</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>9139f0ce-923b-4900-8622-817d01b5309e</t>
+          <t>55f6f6b1-f41a-4bd9-b3f8-3e950718267a</t>
         </is>
       </c>
     </row>
@@ -6784,12 +6784,12 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>e10fcdc5-5df1-4b8b-9353-91aeee4417de</t>
+          <t>e1885977-2733-42ad-800c-108d50b6b456</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>42b41452-2c78-4581-8632-e059cc025c24</t>
+          <t>160919b8-33fb-435f-8d71-6b5ac668e519</t>
         </is>
       </c>
     </row>
@@ -6811,12 +6811,12 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>199cffb5-155e-4c64-8bba-c63cf0fc367a</t>
+          <t>23f9d8c6-4e26-4da1-ad5a-a46d342c2b29</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>30801069-a63a-494c-9b92-8d132ccb2e0d</t>
+          <t>122f0d79-3e00-4a22-a541-556ba38ea7f3</t>
         </is>
       </c>
     </row>
@@ -6838,12 +6838,12 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>6561d474-a20f-45c0-b309-cfef6acd1c49</t>
+          <t>cc33134c-b053-487c-9ce5-91ebb09f7cfd</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>77c6bba6-0228-4815-94db-0daf906724c2</t>
+          <t>c0d0c3b3-8806-4526-a073-cf64f23af85b</t>
         </is>
       </c>
     </row>
@@ -6865,12 +6865,12 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>3d3ea6a8-27c6-4500-afbf-96c19ec57a9d</t>
+          <t>68f79753-8dcd-4f9f-8c2a-52887dc25408</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>96ad8a74-63c6-4bed-9c67-6c807219a73d</t>
+          <t>83fd3a63-366e-4983-8501-20fbc084b1ac</t>
         </is>
       </c>
     </row>
@@ -6892,12 +6892,12 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>b33a7e16-d534-4a63-9953-3213ffc33033</t>
+          <t>6a5f09ba-cc8d-45f0-91d2-66ef737927a8</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>ee9868fc-84b6-4e26-9501-f675c63990b6</t>
+          <t>e427e758-c0d8-4768-96dc-a024a9ddf010</t>
         </is>
       </c>
     </row>
@@ -6919,12 +6919,12 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>8934b591-e1ab-4f7b-b379-951c6f4cffaa</t>
+          <t>fd794fd8-ef31-4a4d-a0c5-c4875db1ab9a</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>797076fa-f04e-4644-8ba3-afb3b1beee04</t>
+          <t>61a75ecb-35e7-42b6-a63e-246bf2f66879</t>
         </is>
       </c>
     </row>
@@ -6946,12 +6946,12 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>02be2580-cbc9-4222-b3d5-c2af14262ef1</t>
+          <t>a83e7afb-448e-4c1c-9937-d580d7ac955e</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>6cf7d3b3-f6fb-4c97-903f-e9b9d2181ac3</t>
+          <t>2658cf1f-9e85-4968-ba3e-83a666bda06b</t>
         </is>
       </c>
     </row>
@@ -6973,12 +6973,12 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>2b5cd82b-3822-44ae-9736-e0c3946fb602</t>
+          <t>52c3b989-110a-4bbd-909e-c25c734c9ac6</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>d7635b11-132a-4e50-8aeb-b13f4013ab53</t>
+          <t>8de7c731-faff-40b5-8ca7-76c590378ef5</t>
         </is>
       </c>
     </row>
@@ -7000,12 +7000,12 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>2b5cd82b-3822-44ae-9736-e0c3946fb602</t>
+          <t>52c3b989-110a-4bbd-909e-c25c734c9ac6</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>511b2ae9-6940-4d07-9cfd-a29a21e95774</t>
+          <t>e6e81599-68d1-4310-90d6-73d87b636e5c</t>
         </is>
       </c>
     </row>
@@ -7027,12 +7027,12 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>2b5cd82b-3822-44ae-9736-e0c3946fb602</t>
+          <t>52c3b989-110a-4bbd-909e-c25c734c9ac6</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>627535e0-9419-48ec-a053-df6142a935e9</t>
+          <t>81965776-bd82-42b1-a08b-c06c24415691</t>
         </is>
       </c>
     </row>
@@ -7054,12 +7054,12 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>2b5cd82b-3822-44ae-9736-e0c3946fb602</t>
+          <t>52c3b989-110a-4bbd-909e-c25c734c9ac6</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>575c76d3-98a9-4dd1-ac63-16fa1504d777</t>
+          <t>e073828e-eda0-4948-aa06-ee244f4ca0cb</t>
         </is>
       </c>
     </row>
@@ -7081,12 +7081,12 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>2b5cd82b-3822-44ae-9736-e0c3946fb602</t>
+          <t>52c3b989-110a-4bbd-909e-c25c734c9ac6</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>c5dd6824-6c3c-4f39-aeb3-aac48b5f4b94</t>
+          <t>6ad3683a-ab87-47eb-acd6-d467ab78dc7d</t>
         </is>
       </c>
     </row>
@@ -7108,12 +7108,12 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>62152c90-50c7-47f1-9f8d-031c218ecf17</t>
+          <t>b8e4ab2a-26b9-4b04-97e8-357653d236ee</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>a46dae93-8e54-42a1-bf47-9af92f206e0d</t>
+          <t>419d8c78-e4f9-4d6a-86da-c5f069cc735e</t>
         </is>
       </c>
     </row>
@@ -7135,12 +7135,12 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>62152c90-50c7-47f1-9f8d-031c218ecf17</t>
+          <t>b8e4ab2a-26b9-4b04-97e8-357653d236ee</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>242ff857-c08c-4af3-8c33-6dca1f21085d</t>
+          <t>711e9296-f9b4-4115-8188-a4444cd30b1c</t>
         </is>
       </c>
     </row>
@@ -7162,12 +7162,12 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>5bb08e0b-13a6-4856-a52e-860af2a35189</t>
+          <t>2f404ac6-45bb-475f-8af8-be5bce423300</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>10918945-2968-47dd-a4b7-9c91d1d79bb8</t>
+          <t>dd544a97-1b9c-40a1-8f32-fef24ac28e4a</t>
         </is>
       </c>
     </row>
@@ -7189,12 +7189,12 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>13bd6cda-7f8b-49ec-a970-6e7e2daaabd3</t>
+          <t>a8b2061a-6594-4626-8124-c27c89b6a9f5</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>74e19d69-55ec-4a6f-9db1-42322d54766c</t>
+          <t>adc99e2b-7a22-4be2-ae5d-1f9365f69441</t>
         </is>
       </c>
     </row>
@@ -7216,12 +7216,12 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>e0056bf9-1f4d-468f-8fbd-bba8ff30a774</t>
+          <t>017a09bf-897e-414a-a736-4490338a2351</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>d1ed3496-4e95-40e3-9180-48181b4bf535</t>
+          <t>bb1bb0a4-c96a-4905-92df-0b97256af196</t>
         </is>
       </c>
     </row>
@@ -7243,12 +7243,12 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>e0056bf9-1f4d-468f-8fbd-bba8ff30a774</t>
+          <t>017a09bf-897e-414a-a736-4490338a2351</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>6d863ac9-2781-40b3-95ef-5004b7652892</t>
+          <t>3474e1b6-e349-4b9e-bd72-6368d7381e27</t>
         </is>
       </c>
     </row>
@@ -7270,12 +7270,12 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>e7acc019-e92c-44e4-8e45-f76a91152b04</t>
+          <t>db8cd7c3-9053-4a0d-9473-4c65df3bb4e2</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>d38fa08a-0499-45c9-9d49-f358d629e116</t>
+          <t>d288ab12-f7ec-4672-9678-dbd46d83ebf9</t>
         </is>
       </c>
     </row>
@@ -7297,12 +7297,12 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>e7acc019-e92c-44e4-8e45-f76a91152b04</t>
+          <t>db8cd7c3-9053-4a0d-9473-4c65df3bb4e2</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>81a881b0-f2a8-431e-8d73-1d4c974a7925</t>
+          <t>5a4e3906-e1bf-4611-a9bd-6733fed2a209</t>
         </is>
       </c>
     </row>
@@ -7324,12 +7324,12 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>eeeacfd6-c779-45ac-936a-f61e144be0ea</t>
+          <t>92ce2cff-fff8-42d4-9565-c486149dcc1e</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>d8839051-39e0-4b88-a5d2-9de15c8f4d0e</t>
+          <t>74934524-79c8-45ab-8d58-89fc8325445c</t>
         </is>
       </c>
     </row>
@@ -7351,12 +7351,12 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>776f6d25-c0a0-4bb4-883c-56e1c489c850</t>
+          <t>91db1ac4-a2da-48c3-b1f0-58c7cd9840fd</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>8e6478e0-bb78-46c2-94ab-5b6c8e6c57e9</t>
+          <t>7f71798a-9f10-49e1-ad84-8c6c882e4d85</t>
         </is>
       </c>
     </row>
@@ -7378,12 +7378,12 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>776f6d25-c0a0-4bb4-883c-56e1c489c850</t>
+          <t>91db1ac4-a2da-48c3-b1f0-58c7cd9840fd</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>768a7de4-1fc4-4b1b-b84d-debd5ce70695</t>
+          <t>f8b52a71-d399-4241-9d15-c2a7674ee30d</t>
         </is>
       </c>
     </row>
@@ -7405,12 +7405,12 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>776f6d25-c0a0-4bb4-883c-56e1c489c850</t>
+          <t>91db1ac4-a2da-48c3-b1f0-58c7cd9840fd</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>5888c4d4-1ac9-49ab-a0b6-8e2f481f27ce</t>
+          <t>f559f921-7e65-4e51-80f3-e3cd622b6531</t>
         </is>
       </c>
     </row>
@@ -7432,12 +7432,12 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>b1cede57-84ab-4c58-acca-e38c4670e664</t>
+          <t>e2e15bbb-0ae8-4994-bfff-f37679d7fdeb</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>8f529e90-1cfa-4492-8f55-649ca855f46c</t>
+          <t>ca3e3d7b-0b37-4d03-ad37-9fa585e9099d</t>
         </is>
       </c>
     </row>
@@ -7459,12 +7459,12 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>1290a239-72a9-4e2c-ba81-72c383554bd2</t>
+          <t>033e98a4-6ca7-4677-bb50-4a5c7f74701e</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>e6f80883-46f2-4122-ab42-7b4ec9b66370</t>
+          <t>3624001b-b171-4401-9d53-99e32386f490</t>
         </is>
       </c>
     </row>
@@ -7486,12 +7486,12 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>7348ece5-e436-47ec-97a8-31b6c887f9fa</t>
+          <t>37dc20d7-bd14-4917-af3a-8c0f70e99d94</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>26215e53-7968-4998-afc7-c3d78aeab931</t>
+          <t>4a6a1312-cf6c-45d3-9133-dd4a9ad4deb7</t>
         </is>
       </c>
     </row>
@@ -7513,12 +7513,12 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>7348ece5-e436-47ec-97a8-31b6c887f9fa</t>
+          <t>37dc20d7-bd14-4917-af3a-8c0f70e99d94</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>9306c661-5bd0-43e2-8a6e-072b2ac29d79</t>
+          <t>3354d7e2-fdd7-4488-9717-e2c29ad4a1f3</t>
         </is>
       </c>
     </row>
@@ -7540,12 +7540,12 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>029cffd0-d91f-44c9-8e57-3cdc61c39795</t>
+          <t>0147ee26-7ded-4bd4-8b17-71db9a9c109d</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>0c3ccc2a-ed10-4f51-b392-9912672a6ab2</t>
+          <t>c4ef5eee-4a90-4ad2-9481-5802414feb83</t>
         </is>
       </c>
     </row>
@@ -7567,12 +7567,12 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>48fc9c16-6bf6-4386-a8b7-f47ff3c00178</t>
+          <t>98434ca2-b9d3-445b-bbd1-8cb0ecee3452</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>10665fae-9f95-44c7-9967-afe8f58c4b6c</t>
+          <t>19cccfcc-1fe5-46b8-8926-fdae8e29230b</t>
         </is>
       </c>
     </row>
@@ -7594,12 +7594,12 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>9f1a6f1f-7670-4da4-8f04-1c13b4ae6fdf</t>
+          <t>52f6e892-09aa-456e-9ed8-92eab4eb3be4</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>6ec197b4-408d-431f-a6fa-649824f42cd6</t>
+          <t>d8363b2d-2fbc-4191-8a33-7ae3a0530ff9</t>
         </is>
       </c>
     </row>
@@ -7621,12 +7621,12 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>c42d2994-eef0-4861-a3d4-ecfd0c1de12b</t>
+          <t>8d1cc72a-d87e-46d1-9bd5-2fe5a00318a4</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>d0b5d076-f459-43a1-a8bb-7ab48918e3f4</t>
+          <t>eaaedf29-ec93-409a-bad7-e80fb6ee0b1a</t>
         </is>
       </c>
     </row>
@@ -7648,12 +7648,12 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>4ecb0714-927b-44f8-842e-394863bba6ad</t>
+          <t>de76d303-931d-4587-bcf7-1f47a9179208</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>6d8e7c0b-2f89-48ff-b71e-fd983f3ab249</t>
+          <t>66c84b5d-394f-4fb3-ab9d-74ea930540ed</t>
         </is>
       </c>
     </row>
@@ -7675,12 +7675,12 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>4ecb0714-927b-44f8-842e-394863bba6ad</t>
+          <t>de76d303-931d-4587-bcf7-1f47a9179208</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>1b0eb167-5ee6-4aa0-87b6-5191e5f84559</t>
+          <t>58936ccb-9916-48f5-859b-bd28d6878159</t>
         </is>
       </c>
     </row>
@@ -7702,12 +7702,12 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>4ecb0714-927b-44f8-842e-394863bba6ad</t>
+          <t>de76d303-931d-4587-bcf7-1f47a9179208</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>ffdd4f09-173a-4f75-a37e-b9c1c7bceb0a</t>
+          <t>c806aa83-9597-49b9-830f-c6a2933d7b8e</t>
         </is>
       </c>
     </row>
@@ -7729,12 +7729,12 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>4ecb0714-927b-44f8-842e-394863bba6ad</t>
+          <t>de76d303-931d-4587-bcf7-1f47a9179208</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>60be68c2-7af5-4e4c-a649-018bcba228ff</t>
+          <t>57b0bb16-37a2-4faa-8fa2-9e31ad3fd814</t>
         </is>
       </c>
     </row>
@@ -7756,12 +7756,12 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>4ecb0714-927b-44f8-842e-394863bba6ad</t>
+          <t>de76d303-931d-4587-bcf7-1f47a9179208</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>6b48f172-c658-40c9-87f7-043d0d357825</t>
+          <t>d52a9b8c-83f4-40e2-bc6e-e294a077d9ea</t>
         </is>
       </c>
     </row>
@@ -7783,12 +7783,12 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>4ecb0714-927b-44f8-842e-394863bba6ad</t>
+          <t>de76d303-931d-4587-bcf7-1f47a9179208</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>d3a6a91e-d80a-4eaf-bd18-829dda0f7181</t>
+          <t>6ab8e3e3-9d32-466e-aeda-799ca27aff77</t>
         </is>
       </c>
     </row>
@@ -7810,12 +7810,12 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>67fb4760-7ca1-4c65-9a09-9ad1ba30b8a9</t>
+          <t>8856f7e9-5a55-4ad4-98e4-02b3c0bb8aee</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>9baa60a8-b12c-41e8-92b9-85b1463dd619</t>
+          <t>0390f5a5-3bcc-49e3-b66b-76ef8942d92e</t>
         </is>
       </c>
     </row>
@@ -7837,12 +7837,12 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>67fb4760-7ca1-4c65-9a09-9ad1ba30b8a9</t>
+          <t>8856f7e9-5a55-4ad4-98e4-02b3c0bb8aee</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>20791fb9-e18b-43a4-b981-7540621d37e0</t>
+          <t>0531ab1e-aac7-42b1-8440-af511bf62190</t>
         </is>
       </c>
     </row>
@@ -7864,12 +7864,12 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>67fb4760-7ca1-4c65-9a09-9ad1ba30b8a9</t>
+          <t>8856f7e9-5a55-4ad4-98e4-02b3c0bb8aee</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>c1d18af5-6873-4563-94b8-27044da8731b</t>
+          <t>029ec468-9c15-476e-bbe3-47d85df7e6f7</t>
         </is>
       </c>
     </row>
@@ -7891,12 +7891,12 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>67fb4760-7ca1-4c65-9a09-9ad1ba30b8a9</t>
+          <t>8856f7e9-5a55-4ad4-98e4-02b3c0bb8aee</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>0eb9427f-7e1e-487f-89c3-1a39ddbb1b20</t>
+          <t>b5e0eea9-33c7-4dbd-99b1-0b6fbd7f0f59</t>
         </is>
       </c>
     </row>
@@ -7918,12 +7918,12 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>4028a303-a7be-4dd8-8774-c49193309177</t>
+          <t>c4cc3273-de13-4846-b593-aa436ab8cd27</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>9c589f4a-ae73-4e58-8856-5f3252ce1d0d</t>
+          <t>b89e4d52-51d7-40c1-a3f1-0b0344e7f194</t>
         </is>
       </c>
     </row>
@@ -7945,12 +7945,12 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>4028a303-a7be-4dd8-8774-c49193309177</t>
+          <t>c4cc3273-de13-4846-b593-aa436ab8cd27</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>f9e558ec-4ac3-40b9-8e84-9ffd0c144f4b</t>
+          <t>c48a007d-f48d-4d08-855a-5e366a8a65df</t>
         </is>
       </c>
     </row>
@@ -7972,12 +7972,12 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>4028a303-a7be-4dd8-8774-c49193309177</t>
+          <t>c4cc3273-de13-4846-b593-aa436ab8cd27</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>a25d571d-9ee9-46b4-aaae-aa298bf14e94</t>
+          <t>3973c1d6-0b0a-41e0-bb5a-546f1e902f77</t>
         </is>
       </c>
     </row>
@@ -7999,12 +7999,12 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>4028a303-a7be-4dd8-8774-c49193309177</t>
+          <t>c4cc3273-de13-4846-b593-aa436ab8cd27</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>fc955dd6-d1e9-44b4-9231-8f9ccdb3f963</t>
+          <t>ce25d14d-0ce1-458e-aaa9-e2b54d49c342</t>
         </is>
       </c>
     </row>
@@ -8026,12 +8026,12 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>4028a303-a7be-4dd8-8774-c49193309177</t>
+          <t>c4cc3273-de13-4846-b593-aa436ab8cd27</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>7d6c6036-9f3e-4a08-ab79-08200a84df9d</t>
+          <t>32d77187-5de2-4198-ad30-bea289ee6746</t>
         </is>
       </c>
     </row>
@@ -8053,12 +8053,12 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>d84f5f08-d871-4735-9b67-6d29192099ea</t>
+          <t>24e915ba-2db5-42ea-acfd-d0ca7e29710b</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>8908fb41-5c13-4312-aee9-6cce90f20e61</t>
+          <t>b56b9e2f-8aaf-4b90-97c6-25e36ed26457</t>
         </is>
       </c>
     </row>
@@ -8080,12 +8080,12 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>a79b9bf3-0ab0-4a58-a28d-6fd0a20f199e</t>
+          <t>aa329eb3-c800-4160-b7f0-6b4bd851eed5</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>fb5a5620-186b-4f57-8912-ab5f5774e286</t>
+          <t>04a301a1-6962-432d-81a7-f44193d45e6a</t>
         </is>
       </c>
     </row>
@@ -8107,12 +8107,12 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>0eacefab-f0e1-45ce-af02-eae0d8c640b8</t>
+          <t>be1a20ef-c493-4791-8111-c7f210b331e5</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>e4c9f208-5bb7-4cd7-a985-cf3287dfea10</t>
+          <t>c15ce535-55b5-4b7b-8117-048a826925f5</t>
         </is>
       </c>
     </row>
@@ -8134,12 +8134,12 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>0eacefab-f0e1-45ce-af02-eae0d8c640b8</t>
+          <t>be1a20ef-c493-4791-8111-c7f210b331e5</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>ef855d43-237e-4eae-b4d6-b733c2ce1fb6</t>
+          <t>97715450-e39d-475a-8125-3c2e3c24c242</t>
         </is>
       </c>
     </row>
@@ -8161,12 +8161,12 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>d30e9d95-5439-4c09-91ab-719f65665fc6</t>
+          <t>219e6ecd-1e6e-4777-95ed-0f7629db6981</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>2aa78b40-fc28-4cec-b329-7f7a6b22a534</t>
+          <t>5594a060-e4cd-48fb-9d88-d8468f657946</t>
         </is>
       </c>
     </row>
@@ -8188,12 +8188,12 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>d30e9d95-5439-4c09-91ab-719f65665fc6</t>
+          <t>219e6ecd-1e6e-4777-95ed-0f7629db6981</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>7af830cc-6db3-470b-b60c-a22584b4db44</t>
+          <t>284bab0e-b335-462d-bef6-ed6ffe14b3f6</t>
         </is>
       </c>
     </row>
@@ -8215,12 +8215,12 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>d30e9d95-5439-4c09-91ab-719f65665fc6</t>
+          <t>219e6ecd-1e6e-4777-95ed-0f7629db6981</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>9aa27a04-b2cf-4206-a1a6-228bd2f5a7bd</t>
+          <t>73dbf83e-7a20-4f52-a6a1-48259d797b78</t>
         </is>
       </c>
     </row>
@@ -8242,12 +8242,12 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>b767c4ed-c0ef-4255-9d75-9a4d329e3983</t>
+          <t>25d826da-5972-4888-91e7-c8624225f961</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>686baf09-7f58-44ba-bf4c-895854f608c0</t>
+          <t>7f6edd66-63e4-4b05-82ad-cac642251a97</t>
         </is>
       </c>
     </row>
@@ -8269,12 +8269,12 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>b767c4ed-c0ef-4255-9d75-9a4d329e3983</t>
+          <t>25d826da-5972-4888-91e7-c8624225f961</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>dfd629c6-06ec-4178-9758-077a0d1baf0f</t>
+          <t>e1ce6d8a-b72d-4738-8574-74097aa9fc8e</t>
         </is>
       </c>
     </row>
@@ -8296,12 +8296,12 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>b767c4ed-c0ef-4255-9d75-9a4d329e3983</t>
+          <t>25d826da-5972-4888-91e7-c8624225f961</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>ac5df68d-f0a3-401d-a63a-ec91bcc6327d</t>
+          <t>977e4534-c6c2-449b-8033-3ee6ee37d1d5</t>
         </is>
       </c>
     </row>
@@ -8323,12 +8323,12 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>b767c4ed-c0ef-4255-9d75-9a4d329e3983</t>
+          <t>25d826da-5972-4888-91e7-c8624225f961</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>1cb850e4-83b2-4091-b3e4-05951d09eba0</t>
+          <t>7e3715dc-3771-45da-8e55-e181d90021cd</t>
         </is>
       </c>
     </row>
@@ -8350,12 +8350,12 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>b767c4ed-c0ef-4255-9d75-9a4d329e3983</t>
+          <t>25d826da-5972-4888-91e7-c8624225f961</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>7e14311b-14dd-4da7-a571-c348d824a839</t>
+          <t>1c66a86a-6575-4023-af9c-b9d387b908f3</t>
         </is>
       </c>
     </row>
@@ -8377,12 +8377,12 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>b767c4ed-c0ef-4255-9d75-9a4d329e3983</t>
+          <t>25d826da-5972-4888-91e7-c8624225f961</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>15fe33df-1b38-46fd-82f0-15c5ab966ea1</t>
+          <t>80804abc-fff8-4511-9752-26f3d914033d</t>
         </is>
       </c>
     </row>
@@ -8404,12 +8404,12 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>b767c4ed-c0ef-4255-9d75-9a4d329e3983</t>
+          <t>25d826da-5972-4888-91e7-c8624225f961</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>02e5acd7-c695-418b-b791-0044cf91130b</t>
+          <t>a70fda9f-5355-41a4-ae24-6aee0b2b6d48</t>
         </is>
       </c>
     </row>
@@ -8431,12 +8431,12 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>b767c4ed-c0ef-4255-9d75-9a4d329e3983</t>
+          <t>25d826da-5972-4888-91e7-c8624225f961</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>da938a48-279b-488f-9b6a-57e1d3b1829c</t>
+          <t>2d810bf8-8bac-4b78-b342-38d56d2de8d4</t>
         </is>
       </c>
     </row>
@@ -8458,12 +8458,12 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>b767c4ed-c0ef-4255-9d75-9a4d329e3983</t>
+          <t>25d826da-5972-4888-91e7-c8624225f961</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>555e2a4c-ec8e-4d63-9074-c7d412bc390d</t>
+          <t>39b88053-d13a-42bf-b7df-9f8432cfbdd6</t>
         </is>
       </c>
     </row>
@@ -8485,12 +8485,12 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>b767c4ed-c0ef-4255-9d75-9a4d329e3983</t>
+          <t>25d826da-5972-4888-91e7-c8624225f961</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>942f11ba-e354-40e7-aca6-9e6cb2cd5ebe</t>
+          <t>9c917652-0967-45a6-bec9-bee88d2e006c</t>
         </is>
       </c>
     </row>
@@ -8512,12 +8512,12 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>b767c4ed-c0ef-4255-9d75-9a4d329e3983</t>
+          <t>25d826da-5972-4888-91e7-c8624225f961</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>7cd68e2e-2462-4cf8-b6ef-e04f2b35cd24</t>
+          <t>e0d7823a-eb1d-44c0-b1db-940e122b6f6a</t>
         </is>
       </c>
     </row>
@@ -8539,12 +8539,12 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>e0059639-7f3b-40eb-acf1-5876c990a039</t>
+          <t>f4d3a078-34c8-4145-9d1f-3334abe13d1a</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>4fed2dff-7e15-4d98-b238-c8d3e9666734</t>
+          <t>65076d06-a58e-4096-9ece-64578115ae35</t>
         </is>
       </c>
     </row>
@@ -8566,12 +8566,12 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>e0059639-7f3b-40eb-acf1-5876c990a039</t>
+          <t>f4d3a078-34c8-4145-9d1f-3334abe13d1a</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>4fdcd619-869f-408b-a249-fa31650ba12f</t>
+          <t>be818ab9-029e-42b7-9752-f2e9e132f95c</t>
         </is>
       </c>
     </row>
@@ -8593,12 +8593,12 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>e0059639-7f3b-40eb-acf1-5876c990a039</t>
+          <t>f4d3a078-34c8-4145-9d1f-3334abe13d1a</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>ad9c41ea-c167-4f0c-ae5f-bfcf9e833e5d</t>
+          <t>b3015ef8-7105-465c-ace3-b4db7fe6d1e8</t>
         </is>
       </c>
     </row>
@@ -8620,12 +8620,12 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>e0059639-7f3b-40eb-acf1-5876c990a039</t>
+          <t>f4d3a078-34c8-4145-9d1f-3334abe13d1a</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>f641ece0-52cc-4695-ae90-ea1042914d62</t>
+          <t>903ad6f9-7fe5-4368-bb5e-4974b64e092d</t>
         </is>
       </c>
     </row>
@@ -8647,12 +8647,12 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>e0059639-7f3b-40eb-acf1-5876c990a039</t>
+          <t>f4d3a078-34c8-4145-9d1f-3334abe13d1a</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>687bfea5-afe5-46b7-8759-c6f0a9036793</t>
+          <t>4e89a4f5-fa0f-4fcd-bbc8-2dc6e6b99eab</t>
         </is>
       </c>
     </row>
@@ -8674,12 +8674,12 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>e0059639-7f3b-40eb-acf1-5876c990a039</t>
+          <t>f4d3a078-34c8-4145-9d1f-3334abe13d1a</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>0d16c667-ccac-4b46-b432-472cb76b0233</t>
+          <t>444036aa-411f-4c13-9ff6-242b291e70c4</t>
         </is>
       </c>
     </row>
@@ -8701,12 +8701,12 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>3c13d2ef-9066-4b3f-8243-fe52e34e02f3</t>
+          <t>dfd65b31-23c8-4397-9773-213c54639ee9</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>74c04b5b-6bf0-4ffd-a1cb-3b8848ea44cc</t>
+          <t>ff385c3a-6912-4712-be61-5b0e3cfbb408</t>
         </is>
       </c>
     </row>
@@ -8728,12 +8728,12 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>00cb51c3-a926-4152-9e76-f69e064dbef4</t>
+          <t>68477ea2-8b06-4029-a4ba-8f83929f3e56</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>521fe74b-f2f2-4817-82ee-4069fadb3c77</t>
+          <t>cf7c5aba-ffd1-4f3e-abba-20c8f930296c</t>
         </is>
       </c>
     </row>
@@ -8755,12 +8755,12 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>8cbb535e-9bab-4cbc-be7a-3841b5a535f8</t>
+          <t>c02d9699-5a27-4d62-8120-8d3d8f0bf4b5</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>acea5f49-cf3b-4c25-8092-966d67a44371</t>
+          <t>1cc2df91-4c48-4b01-accd-24d1baa7aed4</t>
         </is>
       </c>
     </row>
@@ -8782,12 +8782,12 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>346d4a9c-d8ab-4dec-b5be-4a43c24f4703</t>
+          <t>565c2e7f-c654-4437-9876-04feb7171fc5</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>8c66846b-4b61-400c-aaa5-390523c31e26</t>
+          <t>5d3e5e40-7162-4cdb-ac92-4de3ddd38415</t>
         </is>
       </c>
     </row>
@@ -8809,12 +8809,12 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>346d4a9c-d8ab-4dec-b5be-4a43c24f4703</t>
+          <t>565c2e7f-c654-4437-9876-04feb7171fc5</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>6993fcb1-ea07-40da-878a-02d84fa9bee8</t>
+          <t>de6e89f8-b374-4ad7-a31a-e98e97880110</t>
         </is>
       </c>
     </row>
@@ -8836,12 +8836,12 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>346d4a9c-d8ab-4dec-b5be-4a43c24f4703</t>
+          <t>565c2e7f-c654-4437-9876-04feb7171fc5</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>bcb3247b-2da3-49da-88df-53650f0df6a8</t>
+          <t>ada88dbb-f12f-4da4-abef-257ebd9b474a</t>
         </is>
       </c>
     </row>
@@ -8863,12 +8863,12 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>66916c75-ada5-437c-ae24-7a69079e3530</t>
+          <t>e24eb76f-62d0-4675-bd03-136b83d21eca</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>f7f1f367-416c-4810-a447-3753c3e5d55f</t>
+          <t>15052691-9390-40fd-a503-01c72873b522</t>
         </is>
       </c>
     </row>
@@ -8890,12 +8890,12 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>66916c75-ada5-437c-ae24-7a69079e3530</t>
+          <t>e24eb76f-62d0-4675-bd03-136b83d21eca</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>eac5ec58-4fe8-4b5a-b9e7-f111d4b5b5db</t>
+          <t>8d230725-d959-47a8-8f75-040bd4a9f266</t>
         </is>
       </c>
     </row>
@@ -8917,12 +8917,12 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>66916c75-ada5-437c-ae24-7a69079e3530</t>
+          <t>e24eb76f-62d0-4675-bd03-136b83d21eca</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>14b513d7-4b34-4781-8944-d78cd385a193</t>
+          <t>9eef9f65-34e9-4fc5-9f3c-22bf4bfc68c3</t>
         </is>
       </c>
     </row>
@@ -8944,12 +8944,12 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>66916c75-ada5-437c-ae24-7a69079e3530</t>
+          <t>e24eb76f-62d0-4675-bd03-136b83d21eca</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>bd72c3ae-611e-4bd4-bfa8-8e4983838ed3</t>
+          <t>b73bb9a0-12a1-4f1d-976d-9924c349bf1c</t>
         </is>
       </c>
     </row>
@@ -8971,12 +8971,12 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>66916c75-ada5-437c-ae24-7a69079e3530</t>
+          <t>e24eb76f-62d0-4675-bd03-136b83d21eca</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>8e920352-2b42-4bbc-a9ba-d1d1bc4883a3</t>
+          <t>59e41c95-4db3-4696-82b6-02684362f67c</t>
         </is>
       </c>
     </row>
@@ -8998,12 +8998,12 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>66916c75-ada5-437c-ae24-7a69079e3530</t>
+          <t>e24eb76f-62d0-4675-bd03-136b83d21eca</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>0cd8a06d-df8e-4d13-866c-d65a1d1d085f</t>
+          <t>df444d99-13df-4c2c-ae45-35f565078dfc</t>
         </is>
       </c>
     </row>
@@ -9025,12 +9025,12 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>66916c75-ada5-437c-ae24-7a69079e3530</t>
+          <t>e24eb76f-62d0-4675-bd03-136b83d21eca</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>39723bdd-7ab2-429f-85af-39546eff01be</t>
+          <t>1967802f-ebed-434b-b461-cb58925b30cc</t>
         </is>
       </c>
     </row>
@@ -9052,12 +9052,12 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>66916c75-ada5-437c-ae24-7a69079e3530</t>
+          <t>e24eb76f-62d0-4675-bd03-136b83d21eca</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>ac2e9fbf-763c-4527-9556-015d09d4d5f2</t>
+          <t>3f581c19-a6db-4ef4-9abf-d1d708dff11d</t>
         </is>
       </c>
     </row>
@@ -9079,12 +9079,12 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>66916c75-ada5-437c-ae24-7a69079e3530</t>
+          <t>e24eb76f-62d0-4675-bd03-136b83d21eca</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>4ec41058-20be-4ef1-ac33-afdf5959eaad</t>
+          <t>3e9e11b9-2c19-4816-afbd-ffce491cfc47</t>
         </is>
       </c>
     </row>
@@ -9106,12 +9106,12 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>66916c75-ada5-437c-ae24-7a69079e3530</t>
+          <t>e24eb76f-62d0-4675-bd03-136b83d21eca</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>8bc7f0f6-aec8-4917-a894-9d4d78db7663</t>
+          <t>e585018e-7982-4be1-bd40-7d358614426d</t>
         </is>
       </c>
     </row>
@@ -9133,12 +9133,12 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>66916c75-ada5-437c-ae24-7a69079e3530</t>
+          <t>e24eb76f-62d0-4675-bd03-136b83d21eca</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>6e89bbd0-8dbd-4045-91b1-686258e45bc0</t>
+          <t>1745055a-b61a-45ea-866f-8f20c0112c55</t>
         </is>
       </c>
     </row>
@@ -9160,12 +9160,12 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>66916c75-ada5-437c-ae24-7a69079e3530</t>
+          <t>e24eb76f-62d0-4675-bd03-136b83d21eca</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>92f6ee59-3566-4470-8d51-59979575116b</t>
+          <t>b1834c39-b84a-4344-91b6-238b323e8909</t>
         </is>
       </c>
     </row>
@@ -9187,12 +9187,12 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>66916c75-ada5-437c-ae24-7a69079e3530</t>
+          <t>e24eb76f-62d0-4675-bd03-136b83d21eca</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>9eba49b0-c22e-4421-bea6-3280e3942f61</t>
+          <t>1bcfd492-81e0-4baf-869f-3074ea89ee9e</t>
         </is>
       </c>
     </row>
@@ -9214,12 +9214,12 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>66916c75-ada5-437c-ae24-7a69079e3530</t>
+          <t>e24eb76f-62d0-4675-bd03-136b83d21eca</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>a2f03001-d117-4597-b460-efa7816bc850</t>
+          <t>a49a2bd4-2f8b-4a22-b012-c6965fd40326</t>
         </is>
       </c>
     </row>
@@ -9241,12 +9241,12 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>66916c75-ada5-437c-ae24-7a69079e3530</t>
+          <t>e24eb76f-62d0-4675-bd03-136b83d21eca</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>58283516-cff5-4e91-818e-e1a071c8a177</t>
+          <t>fe6df85c-bc51-419c-87e1-02dd5389fe6c</t>
         </is>
       </c>
     </row>
@@ -9268,12 +9268,12 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>66916c75-ada5-437c-ae24-7a69079e3530</t>
+          <t>e24eb76f-62d0-4675-bd03-136b83d21eca</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>8a63d0e4-7a97-4ab0-a550-b487f6a9966f</t>
+          <t>ec330456-297e-482e-8ad3-08f75e931742</t>
         </is>
       </c>
     </row>
@@ -9295,12 +9295,12 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>a0bf46c9-c1fd-4e79-af8b-df4a74a79851</t>
+          <t>256cab7f-0912-4572-ad0b-8c2e60843d35</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>86b92ba3-b7cf-4a6a-b83b-38266e8f3134</t>
+          <t>ec63ccd8-88ff-41ce-9cd7-02d43c40f7c9</t>
         </is>
       </c>
     </row>
@@ -9322,12 +9322,12 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>0088ea8e-374c-472b-9cad-1477b0e348fd</t>
+          <t>8a4f4a3a-cedf-4cc6-875f-42ef72288089</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>4a4a75d5-e7b6-4252-a329-5ba7f417f57e</t>
+          <t>619deb48-1793-489e-bd88-e4418fecf93d</t>
         </is>
       </c>
     </row>
@@ -9349,12 +9349,12 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>8dbf3053-33b2-47c5-b2e4-9a8ee5ca17fe</t>
+          <t>05ae3660-5652-411c-b416-823f98d26e5d</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>6d3f2f28-5b52-42f6-998c-c3ae822a5f87</t>
+          <t>bba30caf-3f9b-4ccd-931f-ce31b042ab08</t>
         </is>
       </c>
     </row>
@@ -9376,12 +9376,12 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>50fe2be2-625b-4476-b06a-52887d073ec2</t>
+          <t>902774c1-efe7-4a55-917d-d7f603eef9a1</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>986f682a-ac4c-4cbe-9442-6362f6e5e723</t>
+          <t>d2c8c7fe-2651-48db-a919-4083d52bde12</t>
         </is>
       </c>
     </row>
@@ -9403,12 +9403,12 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>50fe2be2-625b-4476-b06a-52887d073ec2</t>
+          <t>902774c1-efe7-4a55-917d-d7f603eef9a1</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>216fa9bc-a649-46e4-8b9c-ba529798f907</t>
+          <t>043656bb-98d7-4c1a-a10c-957f37488369</t>
         </is>
       </c>
     </row>
@@ -9430,12 +9430,12 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>50fe2be2-625b-4476-b06a-52887d073ec2</t>
+          <t>902774c1-efe7-4a55-917d-d7f603eef9a1</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>c69b6da2-f946-47a0-97bb-130e754e1e26</t>
+          <t>04398878-56fe-4b11-8e84-cf32c240bdb7</t>
         </is>
       </c>
     </row>
@@ -9457,12 +9457,12 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>50fe2be2-625b-4476-b06a-52887d073ec2</t>
+          <t>902774c1-efe7-4a55-917d-d7f603eef9a1</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>8866a99d-697a-4970-bce6-a6b5a2bf68f2</t>
+          <t>a3cfd621-603e-47dc-8eb0-a56da9932394</t>
         </is>
       </c>
     </row>
@@ -9484,12 +9484,12 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>50fe2be2-625b-4476-b06a-52887d073ec2</t>
+          <t>902774c1-efe7-4a55-917d-d7f603eef9a1</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>db388124-8774-4633-a2b8-e057015e6294</t>
+          <t>4f113657-518d-4cc0-90ae-66eb3a7563a7</t>
         </is>
       </c>
     </row>
@@ -9511,12 +9511,12 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>3ce644fd-e86d-48df-a3d8-a442311eed47</t>
+          <t>4b66b16b-daf5-4e57-9521-df93540f02bf</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>7e94b141-b239-4c18-9bfb-35fc026ec8de</t>
+          <t>fee9307e-6fef-4e2a-8e7b-685ced5fbcd5</t>
         </is>
       </c>
     </row>
@@ -9538,12 +9538,12 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>978dcf60-b88e-4487-96fb-5fabbf0304fc</t>
+          <t>96ed4947-d5a2-4c05-b5e2-a527a15c23c3</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>26934bfe-ffe5-493a-a674-3eb92148d6e6</t>
+          <t>06f6360d-0b03-451b-89ca-f44aa54c1468</t>
         </is>
       </c>
     </row>
@@ -9565,12 +9565,12 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>99c7d707-9936-477e-b783-ecbd0fe40d6d</t>
+          <t>2fe35a77-2727-4db5-bd55-56442e4abce5</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>6184c634-5ded-4d7d-a9e3-12f958e3724a</t>
+          <t>92db0357-3b80-4c93-823e-59c5310cc764</t>
         </is>
       </c>
     </row>
@@ -9592,12 +9592,12 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>713fa309-68aa-4eb3-b2f1-262288e8e2a4</t>
+          <t>52f0af58-d3a8-45cf-bcc7-5f72e83697f8</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>72de18d5-7025-4ecf-a9c8-353e00fa99dc</t>
+          <t>a191d261-316f-4c44-9963-8a87e753106f</t>
         </is>
       </c>
     </row>
@@ -9619,12 +9619,12 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>2e538807-770d-4bab-99ba-743d9802f3fb</t>
+          <t>17a68044-cfd1-4739-bc1d-61d39b60321d</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>c553810c-6dcf-4a4d-99ad-8b481a81df4f</t>
+          <t>e7f27b0d-69aa-41ca-8a18-4c76ec359200</t>
         </is>
       </c>
     </row>
@@ -9646,12 +9646,12 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>2e538807-770d-4bab-99ba-743d9802f3fb</t>
+          <t>17a68044-cfd1-4739-bc1d-61d39b60321d</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>ea099e96-d2e2-4bf0-8102-e343578ba395</t>
+          <t>b718db24-e888-42a3-8754-b4ea000f51ad</t>
         </is>
       </c>
     </row>
@@ -9673,12 +9673,12 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>2e538807-770d-4bab-99ba-743d9802f3fb</t>
+          <t>17a68044-cfd1-4739-bc1d-61d39b60321d</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>384f76b9-cc07-4cd7-becc-b31c5c7138b5</t>
+          <t>13a69f98-f192-4396-828f-d56076c7223b</t>
         </is>
       </c>
     </row>
@@ -9700,12 +9700,12 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>2e538807-770d-4bab-99ba-743d9802f3fb</t>
+          <t>17a68044-cfd1-4739-bc1d-61d39b60321d</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>65076be7-b87f-4c15-8dce-c43433fe465c</t>
+          <t>f61f2226-a61a-4a66-a70c-2a65b0a4bba1</t>
         </is>
       </c>
     </row>
@@ -9727,12 +9727,12 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>2e538807-770d-4bab-99ba-743d9802f3fb</t>
+          <t>17a68044-cfd1-4739-bc1d-61d39b60321d</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>60948b3d-938a-40d3-9a90-9bf62c1bf39d</t>
+          <t>8fca8441-627f-447b-88de-ce8e48b78b21</t>
         </is>
       </c>
     </row>
@@ -9754,12 +9754,12 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>2e538807-770d-4bab-99ba-743d9802f3fb</t>
+          <t>17a68044-cfd1-4739-bc1d-61d39b60321d</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>771a1daf-47a5-4fd2-8037-4b5a621c6ace</t>
+          <t>db6b0550-6972-4107-bfb1-24c385f23327</t>
         </is>
       </c>
     </row>
@@ -9781,12 +9781,12 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>2e538807-770d-4bab-99ba-743d9802f3fb</t>
+          <t>17a68044-cfd1-4739-bc1d-61d39b60321d</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>c3b8cbb1-b995-4f4c-9e40-77392654ccaa</t>
+          <t>a3b2e901-78ed-4af8-a5fb-def8c122e530</t>
         </is>
       </c>
     </row>
@@ -9808,12 +9808,12 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>2e538807-770d-4bab-99ba-743d9802f3fb</t>
+          <t>17a68044-cfd1-4739-bc1d-61d39b60321d</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>dbe53ab9-621f-4919-9469-8eb6eb8b6186</t>
+          <t>a1c2d3c6-924d-4f0a-828e-3b7920c21b82</t>
         </is>
       </c>
     </row>
@@ -9835,12 +9835,12 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>2e538807-770d-4bab-99ba-743d9802f3fb</t>
+          <t>17a68044-cfd1-4739-bc1d-61d39b60321d</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>baa5e140-a38b-4de5-a627-86ee54729a64</t>
+          <t>ab36a553-d244-4905-adf5-c2e8219c3f4e</t>
         </is>
       </c>
     </row>
@@ -9862,12 +9862,12 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>66916c75-ada5-437c-ae24-7a69079e3530</t>
+          <t>e24eb76f-62d0-4675-bd03-136b83d21eca</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>193215cc-317f-489b-ba86-e2cff48b978a</t>
+          <t>230cf77f-87cb-4d8b-afff-0869bd28d1c4</t>
         </is>
       </c>
     </row>
@@ -9889,12 +9889,12 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>d62810ab-2a59-4635-a0f7-8d17c322cf49</t>
+          <t>0704fdd2-f111-45d7-a78c-e245f6e99667</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>ea58a7a6-b967-40ba-afe9-5f27908fc6d7</t>
+          <t>396dde5f-dcda-4e27-a276-d9d5daba834f</t>
         </is>
       </c>
     </row>
@@ -9916,12 +9916,12 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>9e66da1c-fe74-4aaa-9fbf-5d439ef01660</t>
+          <t>f8ce2bbc-efde-4868-8acc-352cbb137634</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>2853c5e7-caea-4f3c-864d-f1aa5658cb7e</t>
+          <t>8ea077ac-9003-4067-814c-becf5f3c64bb</t>
         </is>
       </c>
     </row>
@@ -9943,12 +9943,12 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>d19a069a-0d71-4e39-9d42-0135054193ab</t>
+          <t>a1a14f99-608c-42f3-8a40-654b4f07a8f9</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>d3f27b53-416f-415e-a7a0-90a115a06157</t>
+          <t>ac25f7c9-2c15-4173-bddf-462491300d96</t>
         </is>
       </c>
     </row>
@@ -9970,12 +9970,12 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>f5fc232d-89fa-4cb6-be76-a1037662cf74</t>
+          <t>54f05875-9e74-4683-ad4f-9da4b4ab0f02</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>8cf7d404-d591-422f-9035-eb39805b28ae</t>
+          <t>b1423551-6f32-4be3-ab55-5e36cf41ad92</t>
         </is>
       </c>
     </row>
@@ -9997,12 +9997,12 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>bb2070c4-df42-4d38-b7b5-f425aaaa27db</t>
+          <t>3829e1f3-5794-4ec2-b4c4-952ee2d59ce2</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>c69272bb-bba9-4edc-a0e3-4f5e209ea5a8</t>
+          <t>aa03a2c7-604a-4e9c-8f3f-60235b91474e</t>
         </is>
       </c>
     </row>
@@ -10024,12 +10024,12 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>ec8dc6c8-7783-413f-b6a6-e0d9ff5f27bb</t>
+          <t>98718474-88e8-4f84-a92e-b7502c04ccac</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>dd02c70b-cfab-42d1-9e68-cf03f882d46c</t>
+          <t>8ce6b3fd-df6b-47a2-b8de-eb282340ba77</t>
         </is>
       </c>
     </row>
@@ -10051,12 +10051,12 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>b29547f1-c737-4d7f-8026-f354a2a9f293</t>
+          <t>905d2155-2250-4f60-923b-fbd522fe9b76</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>d95f7b56-3ca4-4c81-82c0-4cfc28e6093f</t>
+          <t>b8402720-221a-406e-9d3e-2baaae6ac23d</t>
         </is>
       </c>
     </row>
@@ -10078,12 +10078,12 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>bdd951e7-c55a-4a79-b6b3-8e84256dae71</t>
+          <t>c7a46d86-2280-494b-acd4-dca35a8eacab</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>62928e09-5edf-413a-ae81-bd8b2c273e16</t>
+          <t>b41ae1df-7644-4858-9848-6ce0cf46e303</t>
         </is>
       </c>
     </row>
@@ -10105,12 +10105,12 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>1e3703d1-6186-481a-a1be-3077c0e9d007</t>
+          <t>51458316-a3f1-49fb-b3a3-e42a3418d2d0</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>64f75370-5fb6-4491-b033-25b4db09050c</t>
+          <t>28b25dad-c1a7-429f-b03f-914ae44e7c8c</t>
         </is>
       </c>
     </row>
@@ -10132,12 +10132,12 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>b95fc984-c22d-4421-afcc-efeffc08fba7</t>
+          <t>f66cb5ef-f5ae-4676-981b-3e50e8b2faf7</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>94d8eb67-770a-4761-8490-568bdb45b914</t>
+          <t>689d3133-f5f6-437b-883e-c0d71ce28f8e</t>
         </is>
       </c>
     </row>
@@ -10159,12 +10159,12 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>b33a7e16-d534-4a63-9953-3213ffc33033</t>
+          <t>6a5f09ba-cc8d-45f0-91d2-66ef737927a8</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>df1c2d1c-414f-4f63-b646-5c76d52421cb</t>
+          <t>bfaa98d9-4e97-47c9-852c-27345417fc87</t>
         </is>
       </c>
     </row>
@@ -10186,12 +10186,12 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>dc86936a-9d52-4232-9a78-b532c641c959</t>
+          <t>f5892319-2d59-4c2c-8f8c-206e1af01977</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>95360b3c-7c70-429e-b4b2-a5e6c2605499</t>
+          <t>d79b9eee-bdb1-4798-8e57-487995406d28</t>
         </is>
       </c>
     </row>
@@ -10213,12 +10213,12 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>900644e9-3b8c-490b-9566-cf730ed7c8c9</t>
+          <t>2c8b00c0-d0bd-4cbb-957a-af6a451d0e2c</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>92c382e4-31c8-4ac0-ad32-90390fbb8c01</t>
+          <t>48264cdd-9395-457a-8e85-1dbb28494421</t>
         </is>
       </c>
     </row>
@@ -10240,12 +10240,12 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>f25c2aec-c8bd-4d7d-a507-1d9fdee1c3ae</t>
+          <t>e669b6ba-d9b6-4774-9e05-1f44f5ddde57</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>7d46707e-08c0-49f3-a8f9-6659cfc979db</t>
+          <t>13c82b11-8083-4067-9bec-8a08bc568d8d</t>
         </is>
       </c>
     </row>
@@ -10267,12 +10267,12 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>dad159fe-0dd9-4912-b93d-8741986de69f</t>
+          <t>5e246587-9aa5-4d42-ac83-eec8ec44cbdf</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>e8ebdfa7-49bc-44c4-9e28-6883dfe94ced</t>
+          <t>5cd6edd5-df32-49ad-bab4-b5bbe9520e39</t>
         </is>
       </c>
     </row>
@@ -10294,12 +10294,12 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>8f20f7a1-2a31-443b-a0d7-0fddce2c0e40</t>
+          <t>fc4413f9-12e3-4ce1-b25c-89f3ad437123</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>741ec6c6-43cc-420d-9e87-93933c5fa963</t>
+          <t>2905d91b-8ca5-41f8-a0db-c4452e8e22c6</t>
         </is>
       </c>
     </row>
@@ -10321,12 +10321,12 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>637454f5-e882-42c2-8e65-971aea6ffcab</t>
+          <t>e219c9be-f2a3-4343-a466-16441aa3e68b</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>f9ee0b7b-4905-4fac-b1e4-168b0b48c9a4</t>
+          <t>0812d054-9229-4dab-abd7-8812ffda561d</t>
         </is>
       </c>
     </row>
@@ -10348,12 +10348,12 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>25e263db-e18b-4608-96dd-f67dacc30f1b</t>
+          <t>90a0951c-84a8-49b2-a7f3-fd53d9d8dc37</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>eceaf009-8bd3-4ab7-8a8a-ff374a06b4ec</t>
+          <t>3e11072f-bc5a-482e-b961-e0cb4f7a8936</t>
         </is>
       </c>
     </row>
@@ -10375,12 +10375,12 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>4b1b3cf9-2b89-41f3-8b84-a7849f5a994f</t>
+          <t>83986559-2872-4767-ad48-7c8612e268c1</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>ffd7c531-1828-4f41-86cd-20b82255f2a7</t>
+          <t>4670ba70-2b26-49ab-9974-d6249c2c8440</t>
         </is>
       </c>
     </row>
@@ -10402,12 +10402,12 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>9583074d-5d54-40c0-9f2d-dbc2dcb15960</t>
+          <t>7acc4d91-0f39-46a8-ae28-d0859b221ba1</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>30985ad1-0553-4b3f-9568-0d948044f352</t>
+          <t>ce7f9de4-b4f6-4505-92d4-4df85b883146</t>
         </is>
       </c>
     </row>
@@ -10429,12 +10429,12 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>65286f77-106a-41fe-a894-a270273a5d9e</t>
+          <t>c60c6bec-9dd1-4184-a01e-044086f3161f</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>b8d3c0e7-31d4-47cf-854e-3f9a9292bfbd</t>
+          <t>02a69ac6-b32c-45b0-bbe4-0fd8510541ad</t>
         </is>
       </c>
     </row>
@@ -10456,12 +10456,12 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>65286f77-106a-41fe-a894-a270273a5d9e</t>
+          <t>c60c6bec-9dd1-4184-a01e-044086f3161f</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>6c8d1784-9371-438e-bf0a-f45a0c95cabf</t>
+          <t>fe9bc95a-d59f-4c0d-8627-648de812276e</t>
         </is>
       </c>
     </row>
@@ -10483,12 +10483,12 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>65286f77-106a-41fe-a894-a270273a5d9e</t>
+          <t>c60c6bec-9dd1-4184-a01e-044086f3161f</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>90ad4b61-6c7b-4065-9e10-bfad2a56ca8f</t>
+          <t>75ad7809-707b-4f26-aaaa-d49addd794d5</t>
         </is>
       </c>
     </row>
@@ -10510,12 +10510,12 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>1205cecb-5002-4e21-a21f-9ae888c299b3</t>
+          <t>77f7644a-b4c3-4476-be47-3f29c783d95b</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>2742c94a-af9e-420f-bb86-cf45170d42f2</t>
+          <t>e561a32b-a75d-4b9f-99fb-b0f6bbfe3ff4</t>
         </is>
       </c>
     </row>
@@ -10537,12 +10537,12 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>87883ca0-4b56-438d-8781-efeff273c75e</t>
+          <t>1caee00d-803e-4582-ad18-12540c7270f0</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>0b6ca216-be31-4449-8dfc-4b7e1a951426</t>
+          <t>55ab662b-3d95-4bff-9225-12ad3894bde1</t>
         </is>
       </c>
     </row>
@@ -10564,12 +10564,12 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>87883ca0-4b56-438d-8781-efeff273c75e</t>
+          <t>1caee00d-803e-4582-ad18-12540c7270f0</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>d4e5406a-6268-43b6-9ce2-db67a2d035b4</t>
+          <t>0803bd50-40e0-4d40-8b2e-3db00f68e270</t>
         </is>
       </c>
     </row>
@@ -10591,12 +10591,12 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>5d6b62e2-46c8-4980-baf2-329952e7110f</t>
+          <t>1aeff66e-5099-4b0e-9d30-c7d7d5331a0f</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>c1562bc4-36d0-48b2-be98-132f4c4b245a</t>
+          <t>3889fcba-7ed0-4690-90c9-15a7dd45d851</t>
         </is>
       </c>
     </row>
@@ -10618,12 +10618,12 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>e14787c2-bcaa-46f1-a20e-3a650a819249</t>
+          <t>95de91a8-9180-4daf-997d-cbaa3985ff25</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>2a138cf1-d02e-4460-b05c-f07b07858e45</t>
+          <t>57296082-150c-467d-ba2d-6470dbe8a65e</t>
         </is>
       </c>
     </row>
@@ -10645,12 +10645,12 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>d8a7fb5c-e851-4d8f-be30-261942e8d1b1</t>
+          <t>34f6d639-3b0d-4480-9a86-8ca27789c905</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>ed053ec6-b8c7-45a3-a802-6b482dd7faa3</t>
+          <t>31586346-ed1b-4c18-b584-63be6d197c2e</t>
         </is>
       </c>
     </row>
@@ -10672,12 +10672,12 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>14ac8a52-250a-44a0-886d-5e14429e9f90</t>
+          <t>afac14c4-697e-4551-9b3b-f12649d5911e</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>6447448a-6864-4268-8394-3da00d584700</t>
+          <t>5e75774e-4841-406c-8eaa-5f9eaf8a5d83</t>
         </is>
       </c>
     </row>
@@ -10699,12 +10699,12 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>8b1dce17-39ef-4023-a2ba-572cfadbe677</t>
+          <t>1d1ba3bf-1262-4468-91c9-bf8ac2dc831f</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>b647351a-a3b2-4878-9dd6-5b6b45f3969d</t>
+          <t>f0866e9e-2006-4294-8410-d4313899f2fa</t>
         </is>
       </c>
     </row>
@@ -10726,12 +10726,12 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>f0d87c00-ca46-4a92-819b-98d16bd218df</t>
+          <t>82da79fd-0a5e-4369-b038-aafcca7fff94</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>d703fe52-57c1-481f-b94a-4fe63f8dda1e</t>
+          <t>4dbca9e4-45cc-478f-95e7-892cc6dbd57f</t>
         </is>
       </c>
     </row>
@@ -10753,12 +10753,12 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>482ada5e-2d45-4243-84b4-5df91f49ef3c</t>
+          <t>3cf9184f-b73c-4d57-b1d6-19ddd13af920</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>988bf310-246b-4ddb-9655-f90f00f657b5</t>
+          <t>6ab9cfa7-e99d-45dc-98ff-2d02e9401225</t>
         </is>
       </c>
     </row>
@@ -10780,12 +10780,12 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>482ada5e-2d45-4243-84b4-5df91f49ef3c</t>
+          <t>3cf9184f-b73c-4d57-b1d6-19ddd13af920</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>2fb3d467-74ff-4d86-98d4-cb542fb61e51</t>
+          <t>f3db4b86-68de-4edf-8799-c94c86209e12</t>
         </is>
       </c>
     </row>
@@ -10807,12 +10807,12 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>482ada5e-2d45-4243-84b4-5df91f49ef3c</t>
+          <t>3cf9184f-b73c-4d57-b1d6-19ddd13af920</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>b13fbd79-aada-419a-aa72-37c0e144b26a</t>
+          <t>09503081-a707-4557-8854-6ba67ce19a5e</t>
         </is>
       </c>
     </row>
@@ -10834,12 +10834,12 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>482ada5e-2d45-4243-84b4-5df91f49ef3c</t>
+          <t>3cf9184f-b73c-4d57-b1d6-19ddd13af920</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>bca16a76-13e2-4d3c-bb42-fe9cb185e45b</t>
+          <t>f84ac202-5e9d-4a87-984e-013327e202c4</t>
         </is>
       </c>
     </row>
@@ -10861,12 +10861,12 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>482ada5e-2d45-4243-84b4-5df91f49ef3c</t>
+          <t>3cf9184f-b73c-4d57-b1d6-19ddd13af920</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>4094df6b-4a70-4ed7-a785-bda5402be4a5</t>
+          <t>2a93e4e6-b767-4f7c-bae0-247fe0cf8f3d</t>
         </is>
       </c>
     </row>
@@ -10888,12 +10888,12 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>482ada5e-2d45-4243-84b4-5df91f49ef3c</t>
+          <t>3cf9184f-b73c-4d57-b1d6-19ddd13af920</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>f6169d20-d265-4368-ba4a-cabd23b79541</t>
+          <t>fdc44d30-87e8-4236-bb89-8e8bd927323d</t>
         </is>
       </c>
     </row>
@@ -10915,12 +10915,12 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>482ada5e-2d45-4243-84b4-5df91f49ef3c</t>
+          <t>3cf9184f-b73c-4d57-b1d6-19ddd13af920</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>3f7930e8-d2ad-45c6-8116-313c32fec73b</t>
+          <t>03304e31-26d9-49be-9be1-72e5044bf034</t>
         </is>
       </c>
     </row>
@@ -10942,12 +10942,12 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>482ada5e-2d45-4243-84b4-5df91f49ef3c</t>
+          <t>3cf9184f-b73c-4d57-b1d6-19ddd13af920</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>02da5a60-6328-4999-82e0-2b1eaf887bdd</t>
+          <t>76379ad8-97b6-43ca-bfa4-f2c7793a1803</t>
         </is>
       </c>
     </row>
@@ -10969,12 +10969,12 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>5a31784b-8176-4eaf-81b3-039a33ed4ffc</t>
+          <t>ffa93632-88f0-4bf7-962e-dbf7c4ab7618</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>13932dfd-ae89-4408-a216-f1a8aff83d8b</t>
+          <t>1de3e947-81e6-4e75-9fe9-bbc0437a1144</t>
         </is>
       </c>
     </row>
@@ -10996,12 +10996,12 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>5a31784b-8176-4eaf-81b3-039a33ed4ffc</t>
+          <t>ffa93632-88f0-4bf7-962e-dbf7c4ab7618</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>025e9df8-a2ac-4c7e-9486-6e63aa88ac8c</t>
+          <t>e9c4bf17-9147-46ad-baf9-79097a735048</t>
         </is>
       </c>
     </row>
@@ -11023,12 +11023,12 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>69712d5a-f778-4517-8293-24ada7a09b10</t>
+          <t>81f61246-6ed5-4eee-b940-bf12e3a0bb16</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>b1af6c00-f2fa-49c8-877f-5cb3abaaf2d7</t>
+          <t>e7cf0c2d-fe83-40b5-8b02-a90f8a364142</t>
         </is>
       </c>
     </row>
@@ -11050,12 +11050,12 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>69712d5a-f778-4517-8293-24ada7a09b10</t>
+          <t>81f61246-6ed5-4eee-b940-bf12e3a0bb16</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>ea2115cf-5da5-469c-9ba5-3f6336d3e957</t>
+          <t>10aae2ad-95ad-44ab-8e33-37b08b0ffe1f</t>
         </is>
       </c>
     </row>
@@ -11077,12 +11077,12 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>69712d5a-f778-4517-8293-24ada7a09b10</t>
+          <t>81f61246-6ed5-4eee-b940-bf12e3a0bb16</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>be812097-84b2-47e8-9a1c-419326ed545d</t>
+          <t>2a1eec73-bf22-4577-a025-498a12019c62</t>
         </is>
       </c>
     </row>
@@ -11104,12 +11104,12 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>1ee9d839-12b1-4f66-9266-539157edd9fd</t>
+          <t>e8d54ee0-6f11-4c25-8e2b-36b722017dfa</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>a6a61c21-1d20-4ab9-85b5-6d4a05e3b360</t>
+          <t>df956f47-3f5b-48e0-851b-0344e72a3eaa</t>
         </is>
       </c>
     </row>
@@ -11131,12 +11131,12 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>1ee9d839-12b1-4f66-9266-539157edd9fd</t>
+          <t>e8d54ee0-6f11-4c25-8e2b-36b722017dfa</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>5f77249a-5aad-4351-9315-3b9523ee136a</t>
+          <t>3ec71f70-fe21-4575-9234-7d59e92c1e42</t>
         </is>
       </c>
     </row>
@@ -11158,12 +11158,12 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>1ee9d839-12b1-4f66-9266-539157edd9fd</t>
+          <t>e8d54ee0-6f11-4c25-8e2b-36b722017dfa</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>5e7be232-5e00-4d95-810f-b49bb84c7387</t>
+          <t>e0055d64-f9d0-4b3d-bc8e-dcc45b70aaf7</t>
         </is>
       </c>
     </row>
@@ -11185,12 +11185,12 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>1ee9d839-12b1-4f66-9266-539157edd9fd</t>
+          <t>e8d54ee0-6f11-4c25-8e2b-36b722017dfa</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>4f91df18-d97b-4d94-91de-7e8d330ad71e</t>
+          <t>d67f0bbb-27ef-4964-b8f3-ff1afa84d213</t>
         </is>
       </c>
     </row>
@@ -11212,12 +11212,12 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>1ee9d839-12b1-4f66-9266-539157edd9fd</t>
+          <t>e8d54ee0-6f11-4c25-8e2b-36b722017dfa</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>2a16da0a-b91d-41fd-9619-0a8766625e95</t>
+          <t>a4dae4ee-4ad5-4ab7-81a6-d119b811a8f3</t>
         </is>
       </c>
     </row>
@@ -11239,12 +11239,12 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>1ee9d839-12b1-4f66-9266-539157edd9fd</t>
+          <t>e8d54ee0-6f11-4c25-8e2b-36b722017dfa</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>3eb9d49a-c2a4-4564-bb77-26125a5e8308</t>
+          <t>c96fbe56-b3de-48b4-be3e-61c575f94616</t>
         </is>
       </c>
     </row>
@@ -11266,12 +11266,12 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>5a665fa8-96f2-4389-842e-53830a6bf8d5</t>
+          <t>df59ff0c-ee92-413b-87e6-a7d097c5f3fd</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>22900d16-754c-46ca-9705-2520b7b73221</t>
+          <t>bd6eb6c7-8814-4079-a0b1-c20955bebdcf</t>
         </is>
       </c>
     </row>
@@ -11293,12 +11293,12 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>5a665fa8-96f2-4389-842e-53830a6bf8d5</t>
+          <t>df59ff0c-ee92-413b-87e6-a7d097c5f3fd</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>ee9c31ae-6681-4bd2-8304-ea3457fc2175</t>
+          <t>ba6d70fa-198b-4553-b817-f23423262e51</t>
         </is>
       </c>
     </row>
@@ -11320,12 +11320,12 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>5a665fa8-96f2-4389-842e-53830a6bf8d5</t>
+          <t>df59ff0c-ee92-413b-87e6-a7d097c5f3fd</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>b7eac84f-dda2-4f20-9974-147d6fd5c770</t>
+          <t>f9f1c8bb-b451-4edb-9618-a8caf0022381</t>
         </is>
       </c>
     </row>
@@ -11347,12 +11347,12 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>5a665fa8-96f2-4389-842e-53830a6bf8d5</t>
+          <t>df59ff0c-ee92-413b-87e6-a7d097c5f3fd</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>59e1bda4-f266-4a39-b68d-102aed9c1a2e</t>
+          <t>4e43595b-6653-4091-aa54-da7edad9d301</t>
         </is>
       </c>
     </row>
@@ -11374,12 +11374,12 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>5a665fa8-96f2-4389-842e-53830a6bf8d5</t>
+          <t>df59ff0c-ee92-413b-87e6-a7d097c5f3fd</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>d8f46719-883b-4667-be0c-d8cc2d128e3f</t>
+          <t>e6ffbce7-e91c-413c-8070-ad04d806ee36</t>
         </is>
       </c>
     </row>
@@ -11401,12 +11401,12 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>5a665fa8-96f2-4389-842e-53830a6bf8d5</t>
+          <t>df59ff0c-ee92-413b-87e6-a7d097c5f3fd</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>b69f3680-2972-4fe5-8a80-4bd19a52d9b4</t>
+          <t>8c4b358e-72f5-40a2-978f-e8a30ad1f253</t>
         </is>
       </c>
     </row>
@@ -11428,12 +11428,12 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>5a665fa8-96f2-4389-842e-53830a6bf8d5</t>
+          <t>df59ff0c-ee92-413b-87e6-a7d097c5f3fd</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>13cab9c1-f966-4731-a719-c69a4219fd5c</t>
+          <t>0db87172-93fd-487b-805a-ae53f3c1229d</t>
         </is>
       </c>
     </row>
@@ -11455,12 +11455,12 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>5a665fa8-96f2-4389-842e-53830a6bf8d5</t>
+          <t>df59ff0c-ee92-413b-87e6-a7d097c5f3fd</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>4d655677-cc8d-4cc8-880b-2ada4aa7e2b1</t>
+          <t>9333a92c-4d8a-42e5-996a-87afaa41822b</t>
         </is>
       </c>
     </row>
@@ -11482,12 +11482,12 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>5a665fa8-96f2-4389-842e-53830a6bf8d5</t>
+          <t>df59ff0c-ee92-413b-87e6-a7d097c5f3fd</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>ac0591a0-7e54-4ebd-a985-2b3a608db0ee</t>
+          <t>5341e654-4050-4186-89e2-94205967ce01</t>
         </is>
       </c>
     </row>
@@ -11509,12 +11509,12 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>5a665fa8-96f2-4389-842e-53830a6bf8d5</t>
+          <t>df59ff0c-ee92-413b-87e6-a7d097c5f3fd</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>fe939c75-810c-4a89-be6a-bd2949eee6b1</t>
+          <t>de0e7e5b-e918-4001-adcc-043b530725bf</t>
         </is>
       </c>
     </row>
@@ -11536,12 +11536,12 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>5a665fa8-96f2-4389-842e-53830a6bf8d5</t>
+          <t>df59ff0c-ee92-413b-87e6-a7d097c5f3fd</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>e7783e55-7df4-4d63-8e3d-0d2a653d9147</t>
+          <t>01ed666e-db45-41f0-a127-891e61554df9</t>
         </is>
       </c>
     </row>
@@ -11563,12 +11563,12 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>5a665fa8-96f2-4389-842e-53830a6bf8d5</t>
+          <t>df59ff0c-ee92-413b-87e6-a7d097c5f3fd</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>9aaeab98-c174-4c30-ab0b-657d7df5913a</t>
+          <t>c6a179cd-b39d-4406-97dc-6f8f3a41d6c3</t>
         </is>
       </c>
     </row>
@@ -11590,12 +11590,12 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>5a665fa8-96f2-4389-842e-53830a6bf8d5</t>
+          <t>df59ff0c-ee92-413b-87e6-a7d097c5f3fd</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>b7a20802-267e-4448-b504-5caaf31e1db7</t>
+          <t>149e72e2-3dd1-4745-b15a-4f431f3172d2</t>
         </is>
       </c>
     </row>
@@ -11617,12 +11617,12 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>5a665fa8-96f2-4389-842e-53830a6bf8d5</t>
+          <t>df59ff0c-ee92-413b-87e6-a7d097c5f3fd</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>4b14404a-87bb-4391-b393-6bc8d533c055</t>
+          <t>a833803f-8551-43d5-8179-3fd259d0aa64</t>
         </is>
       </c>
     </row>
@@ -11644,12 +11644,12 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>5a665fa8-96f2-4389-842e-53830a6bf8d5</t>
+          <t>df59ff0c-ee92-413b-87e6-a7d097c5f3fd</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>c6d9fa44-fbf5-479e-807b-d4e71b917d18</t>
+          <t>822ec0c4-b420-4d27-b828-05066e87a7a0</t>
         </is>
       </c>
     </row>
@@ -11671,12 +11671,12 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>5a665fa8-96f2-4389-842e-53830a6bf8d5</t>
+          <t>df59ff0c-ee92-413b-87e6-a7d097c5f3fd</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>4e498797-0317-40a1-9357-763d4d3d16a0</t>
+          <t>46c93463-60b3-415e-98c9-195ac98233b9</t>
         </is>
       </c>
     </row>
@@ -11698,12 +11698,12 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>569e25d6-a1ef-4a22-8eb2-707ee355409a</t>
+          <t>e7da2fe9-ee25-45e0-ba44-3870fac269a5</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>33f4c3c6-9abd-431b-97be-b0a7fc2d854b</t>
+          <t>b687835b-675d-4bdd-a32d-412537fa4925</t>
         </is>
       </c>
     </row>
@@ -11725,12 +11725,12 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>569e25d6-a1ef-4a22-8eb2-707ee355409a</t>
+          <t>e7da2fe9-ee25-45e0-ba44-3870fac269a5</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>501f31a7-f75c-40dc-a511-0354ff945edd</t>
+          <t>97d943c3-779c-45b2-8a63-723bde975202</t>
         </is>
       </c>
     </row>
@@ -11752,12 +11752,12 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>12d6ad2c-ee42-438c-b3fb-5133a2b2134b</t>
+          <t>7b4f5dc3-c59f-4aa2-8fc7-899c9967e38b</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>ee053efe-519a-4fda-b868-c365be5320bf</t>
+          <t>447ba354-b3ec-48f3-b6e1-b2cd9144869a</t>
         </is>
       </c>
     </row>
@@ -11779,12 +11779,12 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>fac80af2-e995-4c79-ac98-3557cd12fb96</t>
+          <t>1e4a85b3-36a0-4b31-8eb5-9d4581d37d3d</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>b46b7559-81c0-428e-8ca7-60ef431b6723</t>
+          <t>25758976-b3a7-4c07-a621-b09bdea0eb17</t>
         </is>
       </c>
     </row>
@@ -11806,12 +11806,12 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>28420c01-f033-4521-807f-a53691f10972</t>
+          <t>c99e58b7-1350-44b0-a888-3266467c17fc</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>4a1b943f-35cc-4a7a-9b43-c9bc81034018</t>
+          <t>59a05443-e27d-451a-8124-c810d4061e1b</t>
         </is>
       </c>
     </row>
@@ -11833,12 +11833,12 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>9b0f1272-444b-4a0f-8d4c-41454e510e21</t>
+          <t>a6e26533-195f-44ba-b9e6-694bf93ccb5b</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>9114b8f2-5d9c-4df4-ab5a-c602dff11ef3</t>
+          <t>e4fadd8b-4f26-4865-8d23-27eeca04b03d</t>
         </is>
       </c>
     </row>
@@ -11860,12 +11860,12 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>5a3d7be6-615f-4c70-a4a8-ebbd695b9dec</t>
+          <t>7243c696-0b30-4ac8-9e24-ad960a6a6501</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>cf7d5cbb-e36e-4a31-befc-5fafa8c0f4f3</t>
+          <t>268713b8-4e95-43b4-8be7-d38860866349</t>
         </is>
       </c>
     </row>
@@ -11887,12 +11887,12 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>e9ab7688-fd8f-46e4-9bc0-df9892d81014</t>
+          <t>9471cb1a-5ecc-4295-a419-72f1f376077c</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>41b02887-2783-43df-940d-cacf9c0f200f</t>
+          <t>271d2caf-6fbd-4fb8-a7b9-de9228098b0e</t>
         </is>
       </c>
     </row>
@@ -11914,12 +11914,12 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>92bb5606-65b0-4a8c-8024-444cbd9414f3</t>
+          <t>56694946-905f-470c-92ea-3e5cca5c8749</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>99a4932d-cf2a-4533-b3fa-f3bca8156295</t>
+          <t>d55e781a-76e5-4338-ba75-5292d9aab740</t>
         </is>
       </c>
     </row>
@@ -11941,12 +11941,12 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>976f98c7-219b-4418-b43c-c83a647f59ad</t>
+          <t>00270c55-79b0-4e87-a3fc-99df43dacf4e</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>37af6d07-a812-45d7-b8b2-03a13df8d508</t>
+          <t>c0b0ff76-9f91-4b63-b61e-12de4da0c6d5</t>
         </is>
       </c>
     </row>
@@ -11968,12 +11968,12 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>98b9ccfc-a3a6-4a03-9aa4-2597c813cfe3</t>
+          <t>75732889-a8f8-47de-b953-53dd3ca5712f</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>153952c1-3a79-44fa-a263-73bf3bf1f4d1</t>
+          <t>b32f137f-eb5c-49dd-b3a7-c0ec4b076cc9</t>
         </is>
       </c>
     </row>
@@ -11995,12 +11995,12 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>57a9782b-413c-44ab-929a-e7fe24857508</t>
+          <t>4af8f1df-63b0-4453-8157-188dc973f7ef</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>318ec14a-b401-48b3-946b-7277f15b91af</t>
+          <t>9901ff58-346d-4342-aee1-f466a8cdbe73</t>
         </is>
       </c>
     </row>
@@ -12022,12 +12022,12 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>b48002c1-e00c-49c9-a342-d4ba89efed62</t>
+          <t>3a24ba49-3b74-4ad9-bf99-d7fe3982e612</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>ce699e97-d2d9-4a65-ab34-bf9adf56a16d</t>
+          <t>4d8b86df-c18d-4ff6-8915-a992e8a0c383</t>
         </is>
       </c>
     </row>
@@ -12049,12 +12049,12 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>90a69469-e1e2-4de6-a3ce-3e2486df783f</t>
+          <t>bf84e849-2d9d-4d88-b412-6e98993d597f</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>e23a3724-e89f-4b9b-a711-84e50f921be2</t>
+          <t>150e0be3-cfb6-459c-85fe-cdd101465752</t>
         </is>
       </c>
     </row>
@@ -12076,12 +12076,12 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>c021a41b-16af-4f6a-b453-1fac705be357</t>
+          <t>5f6ccce3-aa10-4c5f-860b-7a544ca5dbcc</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>572b78d4-b60c-49dd-8a53-2c9008236353</t>
+          <t>f9ae899f-d831-4daa-80e5-1fb5c18eea81</t>
         </is>
       </c>
     </row>
@@ -12103,12 +12103,12 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>61159649-e281-4f8a-9ab1-415323941256</t>
+          <t>e91826f7-4f28-4743-86df-d79b4c70d7f0</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>69c34a79-fc2f-4c62-980f-bf4d8c828206</t>
+          <t>76475459-bf0b-4685-913a-15a6dc71b58a</t>
         </is>
       </c>
     </row>
@@ -12130,12 +12130,12 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>145c200f-2d63-4188-92fe-67ee954e7a5b</t>
+          <t>313439f3-8960-4a4c-97f7-66c1908f5aca</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>1633a9cf-6d48-400e-970a-c260c73556a7</t>
+          <t>dea2e843-518d-48e1-a6ab-e92cff50c762</t>
         </is>
       </c>
     </row>
@@ -12157,12 +12157,12 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>f391dd5c-66f9-428b-92fa-5042ee2fd7a5</t>
+          <t>f73de678-9350-480f-bbe7-69073c2a99ef</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>2274e378-e356-4900-b86a-562080c31800</t>
+          <t>fcaab1f5-7c71-40c2-b644-6b307c46461f</t>
         </is>
       </c>
     </row>
@@ -12184,12 +12184,12 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>f1341286-0c26-4dd4-8cda-36c708cb463a</t>
+          <t>0f9812ea-8fd0-4273-a638-9b6f1e4a4336</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>1a27f67b-e201-4027-b925-0e20054eb2d3</t>
+          <t>4361bbf9-9fea-40ff-b2a9-0fb176b9edd0</t>
         </is>
       </c>
     </row>
@@ -12211,12 +12211,12 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>960c3575-0aba-44cb-89f5-e7f31e6ba95a</t>
+          <t>57d06763-41bd-4a8b-93bb-215e22915bf0</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>9543994d-de48-4327-b85d-cadd5bab53c9</t>
+          <t>22873b64-f2a3-4c44-ae8d-78e84f14eeb7</t>
         </is>
       </c>
     </row>
@@ -12238,12 +12238,12 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>08eeabe6-8f9e-4efa-84f2-146b29335056</t>
+          <t>2039d88c-70e7-4c10-ae58-3eac5e965839</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>30d22bef-7b53-479b-8e5e-3f8a9189baab</t>
+          <t>08bbd5db-c424-46ba-8da9-bf8c3f38efbc</t>
         </is>
       </c>
     </row>
@@ -12265,12 +12265,12 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>9eb6399b-fd05-457e-a8a9-bbc40802cd1b</t>
+          <t>274a41e5-1db1-427f-9604-a8e17aca0312</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>5e7c58ea-1c5c-46e2-b483-5dde8ff085bc</t>
+          <t>37e3c3f8-9975-4bd9-aca7-0e430fcc3ca3</t>
         </is>
       </c>
     </row>
@@ -12292,12 +12292,12 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>95a06d3f-c614-46c3-af52-2f7397012a4b</t>
+          <t>1ceecb9b-4f88-40f2-be5c-c7d28a28a534</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>a05a1b51-0f26-4204-846b-30c7903c5fdb</t>
+          <t>c1d13062-1358-44a2-8dc6-81768f0b606e</t>
         </is>
       </c>
     </row>
@@ -12319,12 +12319,12 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>80259acd-20b6-4389-b722-2ec93a51bc64</t>
+          <t>31b57bc7-ab7b-4c2c-8aee-81351dd0c509</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>0886f887-b196-4e48-bddb-02fe2c75d1d4</t>
+          <t>5bc4b415-3514-40d3-a46e-19cbfc3f8f1f</t>
         </is>
       </c>
     </row>
@@ -12346,12 +12346,12 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>80259acd-20b6-4389-b722-2ec93a51bc64</t>
+          <t>31b57bc7-ab7b-4c2c-8aee-81351dd0c509</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>36057299-c4c1-4fad-91fe-f104fceb0458</t>
+          <t>9c6f3397-d8dd-4c81-9c4a-3c10f655a68a</t>
         </is>
       </c>
     </row>
@@ -12373,12 +12373,12 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>80259acd-20b6-4389-b722-2ec93a51bc64</t>
+          <t>31b57bc7-ab7b-4c2c-8aee-81351dd0c509</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>9b59f30b-d59b-4f89-b802-50e58228d6b4</t>
+          <t>6cd4f366-436d-4282-9fd2-daf25a166f49</t>
         </is>
       </c>
     </row>
@@ -12400,12 +12400,12 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>efb09b92-a77b-4531-9ff6-8dc9b74c91ef</t>
+          <t>28b292ae-88ff-4c40-b8b9-1b8faf15b3ac</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>33b2232c-c41f-4309-a79b-c65f3ac7cdad</t>
+          <t>24830489-20bb-4812-9a79-c841ad4a35de</t>
         </is>
       </c>
     </row>
@@ -12427,12 +12427,12 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>efb09b92-a77b-4531-9ff6-8dc9b74c91ef</t>
+          <t>28b292ae-88ff-4c40-b8b9-1b8faf15b3ac</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>ecc63aac-2884-492f-aad1-7dc8914cb305</t>
+          <t>d4087307-fe87-4c76-a644-f07bd95a0e6d</t>
         </is>
       </c>
     </row>
@@ -12454,12 +12454,12 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>efb09b92-a77b-4531-9ff6-8dc9b74c91ef</t>
+          <t>28b292ae-88ff-4c40-b8b9-1b8faf15b3ac</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>1613cfb4-b676-4623-b6d2-891ff1e14824</t>
+          <t>b3c7f74c-89d7-4ea4-a57c-a8b7bdb822b0</t>
         </is>
       </c>
     </row>
@@ -12481,12 +12481,12 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>0c60d524-88cb-4094-b65f-dace4852fc3b</t>
+          <t>bc7842cc-27bd-49b2-bf4d-e26ae4fba3ed</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>9706cce5-3603-44e5-ba55-334f86143dfe</t>
+          <t>6b25c4d1-8a92-43b4-b556-8156077d15a3</t>
         </is>
       </c>
     </row>
@@ -12508,12 +12508,12 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>0c60d524-88cb-4094-b65f-dace4852fc3b</t>
+          <t>bc7842cc-27bd-49b2-bf4d-e26ae4fba3ed</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>f2d8a848-8a40-4cba-9add-5b57671ce635</t>
+          <t>583b3332-42b4-4e8c-bfc4-2c8011098741</t>
         </is>
       </c>
     </row>
@@ -12535,12 +12535,12 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>0c60d524-88cb-4094-b65f-dace4852fc3b</t>
+          <t>bc7842cc-27bd-49b2-bf4d-e26ae4fba3ed</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>b04fe062-571c-41d5-a132-b0cf70026664</t>
+          <t>cfcb622f-7104-4ae3-9cb7-d8cf7340d87b</t>
         </is>
       </c>
     </row>
@@ -12562,12 +12562,12 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>2eaec09d-4639-4538-bcb8-e2d59ebaeeaa</t>
+          <t>2af75daa-ed81-49bd-ab97-77adb0975c5d</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>bfb2b8c1-9cb9-4380-8bbd-86c3e55b64fe</t>
+          <t>4dddbf58-aa8f-4874-90b5-f94895273828</t>
         </is>
       </c>
     </row>
@@ -12589,12 +12589,12 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>2eaec09d-4639-4538-bcb8-e2d59ebaeeaa</t>
+          <t>2af75daa-ed81-49bd-ab97-77adb0975c5d</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>361712dd-c8f8-44a4-82e2-5b7ffd1fe201</t>
+          <t>709e2a53-768d-4d7a-b35a-561d61561c4c</t>
         </is>
       </c>
     </row>
@@ -12616,12 +12616,12 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>2eaec09d-4639-4538-bcb8-e2d59ebaeeaa</t>
+          <t>2af75daa-ed81-49bd-ab97-77adb0975c5d</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>adbdcea1-10b1-4c1a-b5d4-1c78452ec393</t>
+          <t>34277843-e511-4979-9f90-42d751fee7bc</t>
         </is>
       </c>
     </row>
@@ -12643,12 +12643,12 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>2fd6ed37-0c5e-45e3-9de8-50f25469426e</t>
+          <t>c05a1736-1fcd-4958-9fc3-8510497162ba</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>2e32d425-4430-40b0-9c4b-815d1b3474df</t>
+          <t>f7e28de7-d6f1-4e06-9615-55c00dd4d397</t>
         </is>
       </c>
     </row>
@@ -12670,12 +12670,12 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>2fd6ed37-0c5e-45e3-9de8-50f25469426e</t>
+          <t>c05a1736-1fcd-4958-9fc3-8510497162ba</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>c8c75574-75bc-4b6a-aa7c-665cb70da65b</t>
+          <t>a05685d5-fc54-4067-a352-a73349c62577</t>
         </is>
       </c>
     </row>
@@ -12697,12 +12697,12 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>2fd6ed37-0c5e-45e3-9de8-50f25469426e</t>
+          <t>c05a1736-1fcd-4958-9fc3-8510497162ba</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>372c53ad-f721-4962-8655-df33fec5e998</t>
+          <t>4ebfb389-05a4-44a2-87d3-eaf41b2b2b49</t>
         </is>
       </c>
     </row>
@@ -12724,12 +12724,12 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>022b3fee-497e-438f-b19c-10a1e7ef37b7</t>
+          <t>2d6494e7-6844-4f22-8e5c-2cb9c9370c44</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>00b800e9-0715-4da8-a3a2-4b4be7ba7886</t>
+          <t>8ed4dcce-64b6-4936-9176-92f40ac55bf1</t>
         </is>
       </c>
     </row>
@@ -12751,12 +12751,12 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>022b3fee-497e-438f-b19c-10a1e7ef37b7</t>
+          <t>2d6494e7-6844-4f22-8e5c-2cb9c9370c44</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>f0e47d8a-dffc-4cb6-8cbd-f106596c0603</t>
+          <t>0be3ca1d-b58b-45f8-bdeb-a606a908a843</t>
         </is>
       </c>
     </row>
@@ -12778,12 +12778,12 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>022b3fee-497e-438f-b19c-10a1e7ef37b7</t>
+          <t>2d6494e7-6844-4f22-8e5c-2cb9c9370c44</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>3364cd74-be3b-4750-9066-dea67783f698</t>
+          <t>9b0b20d4-eea2-4c30-b06c-b9f10e78d4e0</t>
         </is>
       </c>
     </row>
@@ -12805,12 +12805,12 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>c867adde-3133-4037-a6d0-b2a9b9f46588</t>
+          <t>848654bb-ff1b-4ef7-91c7-cffb061e4dbd</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>35fe267b-24fd-42cc-9969-5e26e6c92718</t>
+          <t>c650dad2-3c93-42c7-8b0a-072353ac6a8e</t>
         </is>
       </c>
     </row>
@@ -12832,12 +12832,12 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>799083f9-dee9-4fd6-b637-f5a86b53a2a6</t>
+          <t>e4bcc79e-e544-45dd-a98c-abd4aa5e841b</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>b8f739f2-f483-4265-8c83-23daeae41e15</t>
+          <t>73cbf25b-8043-4f0c-8837-a8fe31b99c53</t>
         </is>
       </c>
     </row>
@@ -12859,12 +12859,12 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>799083f9-dee9-4fd6-b637-f5a86b53a2a6</t>
+          <t>e4bcc79e-e544-45dd-a98c-abd4aa5e841b</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>bd25c17c-a2c3-4554-802e-46f3690170ca</t>
+          <t>434e8e3c-4cbd-427e-8ba1-b9d71e7a578e</t>
         </is>
       </c>
     </row>
@@ -12886,12 +12886,12 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>799083f9-dee9-4fd6-b637-f5a86b53a2a6</t>
+          <t>e4bcc79e-e544-45dd-a98c-abd4aa5e841b</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>7116579e-57bb-44e6-9f50-7ffbbadbcd75</t>
+          <t>8e13ada9-ca42-4c70-8b31-ec939b87e9a1</t>
         </is>
       </c>
     </row>
@@ -12913,12 +12913,12 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>45a5804b-39bb-415b-b9f9-379aaa451839</t>
+          <t>705df002-dff8-4d04-89af-f8374a0fd4ae</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>8dcff094-a126-4da4-b326-2e8a67210c4d</t>
+          <t>1357baf2-71a9-48d5-b2b8-da8a13fb92f4</t>
         </is>
       </c>
     </row>
@@ -12940,12 +12940,12 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>45a5804b-39bb-415b-b9f9-379aaa451839</t>
+          <t>705df002-dff8-4d04-89af-f8374a0fd4ae</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>2df22102-186e-43be-9856-e9586248ffb9</t>
+          <t>87b5896a-0371-47b1-899d-8c94ad06a85d</t>
         </is>
       </c>
     </row>
@@ -12967,12 +12967,12 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>45a5804b-39bb-415b-b9f9-379aaa451839</t>
+          <t>705df002-dff8-4d04-89af-f8374a0fd4ae</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>522e8452-ca29-49f1-95ba-5c9505e6fab1</t>
+          <t>8933a123-1956-487b-8ef3-6aeac5d97416</t>
         </is>
       </c>
     </row>
@@ -12994,12 +12994,12 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>785abae6-df32-4753-ba3c-2f3035e166bc</t>
+          <t>b855e090-4175-46e8-a6ad-783e4c2aed82</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>bfc7ce8c-a6f2-4310-b065-ee84668667c5</t>
+          <t>6f0b65a0-6d64-42e4-b6b4-3435a4850961</t>
         </is>
       </c>
     </row>
@@ -13021,12 +13021,12 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>785abae6-df32-4753-ba3c-2f3035e166bc</t>
+          <t>b855e090-4175-46e8-a6ad-783e4c2aed82</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>7d726f88-7c0b-4ad0-b41c-429278464c11</t>
+          <t>a4e34484-fd53-40fa-8ba3-21a21d682d4c</t>
         </is>
       </c>
     </row>
@@ -13048,39 +13048,12 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>785abae6-df32-4753-ba3c-2f3035e166bc</t>
+          <t>b855e090-4175-46e8-a6ad-783e4c2aed82</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>676f12ae-06de-473d-8068-d420d72632c9</t>
-        </is>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>Пусто</t>
-        </is>
-      </c>
-      <c r="B469" t="inlineStr">
-        <is>
-          <t>00000000</t>
-        </is>
-      </c>
-      <c r="C469" t="inlineStr">
-        <is>
-          <t>04c59d81-6067-44e8-b3af-2326734c7d60</t>
-        </is>
-      </c>
-      <c r="D469" t="inlineStr">
-        <is>
-          <t>d8872204-ca59-4579-a9ab-eb5e0f786a34</t>
-        </is>
-      </c>
-      <c r="E469" t="inlineStr">
-        <is>
-          <t>ad979d47-a093-422c-8d99-52a6861e8031</t>
+          <t>e98ef803-ec7f-4139-92aa-16bce84c74d2</t>
         </is>
       </c>
     </row>
